--- a/public/preprocessing/@PutraWadapi.xlsx
+++ b/public/preprocessing/@PutraWadapi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16445</v>
+        <v>27213</v>
       </c>
       <c r="C2" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>rt cari aman di era jokowi salim said pemerintahan sekarang ini kita tidak tahu siapa yang berkuasa</t>
+          <t>rt kedepannya akan ada info yang gak kalah seru dan juga bongkar buzzer masih akan berlanjut tapi sebaiknya gue bikin ba</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['rt', 'cari', 'aman', 'di', 'era', 'jokowi', 'salim', 'said', 'pemerintahan', 'sekarang', 'ini', 'kita', 'tidak', 'tahu', 'siapa', 'yang', 'berkuasa']</t>
+          <t>['rt', 'kedepannya', 'akan', 'ada', 'info', 'yang', 'gak', 'kalah', 'seru', 'dan', 'juga', 'bongkar', 'buzzer', 'masih', 'akan', 'berlanjut', 'tapi', 'sebaiknya', 'gue', 'bikin', 'ba']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'kedepannya', 'akan', 'ada', 'info', 'yang', 'tidak', 'kalah', 'seru', 'dan', 'juga', 'bongkar', 'buzzer', 'masih', 'akan', 'berlanjut', 'tapi', 'sebaiknya', 'gue', 'bikin', 'ba']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['cari', 'aman', 'era', 'jokowi', 'salim', 'said', 'pemerintahan', 'berkuasa']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['cari', 'aman', 'era', 'jokowi', 'salim', 'said', 'perintah', 'kuasa']</t>
+          <t>['kedepannya', 'info', 'kalah', 'seru', 'bongkar', 'buzzer', 'berlanjut', 'gue', 'ba']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['depan', 'info', 'kalah', 'seru', 'bongkar', 'buzzer', 'lanjut', 'gue', 'ba']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16446</v>
+        <v>27214</v>
       </c>
       <c r="C3" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>rt take care everyone terutama yang rumahnya dekat sungai kemungkinan hujan ekstrim lagi hari ini</t>
+          <t>rt genap satu tahun dipimpin ahy partai demokrat luar biasa demokrat solid https</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['rt', 'take', 'care', 'everyone', 'terutama', 'yang', 'rumahnya', 'dekat', 'sungai', 'kemungkinan', 'hujan', 'ekstrim', 'lagi', 'hari', 'ini']</t>
+          <t>['rt', 'genap', 'satu', 'tahun', 'dipimpin', 'ahy', 'partai', 'demokrat', 'luar', 'biasa', 'demokrat', 'solid', 'https']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'genap', 'satu', 'tahun', 'dipimpin', 'agus, harimurti, yudhoyono', 'partai', 'demokrat', 'luar', 'biasa', 'demokrat', 'solid', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['take', 'care', 'everyone', 'rumahnya', 'sungai', 'hujan', 'ekstrim']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['take', 'care', 'everyone', 'rumah', 'sungai', 'hujan', 'ekstrim']</t>
+          <t>['genap', 'dipimpin', 'agus, harimurti, yudhoyono', 'partai', 'demokrat', 'demokrat', 'solid', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['genap', 'pimpin', 'agus harimurti yudhoyono', 'partai', 'demokrat', 'demokrat', 'solid', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16447</v>
+        <v>27215</v>
       </c>
       <c r="C4" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt seringkali pembuat uu itu berpikir bahwa sanksi di uu buat orang lain bukan buat mereka</t>
+          <t>rt genap satu tahun dipimpin ahy partai demokrat luar biasa demokrat solid https</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'seringkali', 'pembuat', 'uu', 'itu', 'berpikir', 'bahwa', 'sanksi', 'di', 'uu', 'buat', 'orang', 'lain', 'bukan', 'buat', 'mereka']</t>
+          <t>['rt', 'genap', 'satu', 'tahun', 'dipimpin', 'ahy', 'partai', 'demokrat', 'luar', 'biasa', 'demokrat', 'solid', 'https']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'genap', 'satu', 'tahun', 'dipimpin', 'agus, harimurti, yudhoyono', 'partai', 'demokrat', 'luar', 'biasa', 'demokrat', 'solid', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['seringkali', 'pembuat', 'uu', 'berpikir', 'sanksi', 'uu', 'orang']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['seringkali', 'buat', 'uu', 'pikir', 'sanksi', 'uu', 'orang']</t>
+          <t>['genap', 'dipimpin', 'agus, harimurti, yudhoyono', 'partai', 'demokrat', 'demokrat', 'solid', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['genap', 'pimpin', 'agus harimurti yudhoyono', 'partai', 'demokrat', 'demokrat', 'solid', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16448</v>
+        <v>27216</v>
       </c>
       <c r="C5" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rt cute jadi paham ya hudhi jokowi itu bukan simbol negara rakyat itu cuma butuh keadilan dan ketegasan terkait protoko</t>
+          <t>rt genap satu tahun dipimpin ahy partai demokrat luar biasa demokrat solid https</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rt', 'cute', 'jadi', 'paham', 'ya', 'hudhi', 'jokowi', 'itu', 'bukan', 'simbol', 'negara', 'rakyat', 'itu', 'cuma', 'butuh', 'keadilan', 'dan', 'ketegasan', 'terkait', 'protoko']</t>
+          <t>['rt', 'genap', 'satu', 'tahun', 'dipimpin', 'ahy', 'partai', 'demokrat', 'luar', 'biasa', 'demokrat', 'solid', 'https']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'genap', 'satu', 'tahun', 'dipimpin', 'agus, harimurti, yudhoyono', 'partai', 'demokrat', 'luar', 'biasa', 'demokrat', 'solid', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['cute', 'paham', 'hudhi', 'jokowi', 'simbol', 'negara', 'rakyat', 'butuh', 'keadilan', 'ketegasan', 'terkait', 'protoko']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['cute', 'paham', 'hudhi', 'jokowi', 'simbol', 'negara', 'rakyat', 'butuh', 'adil', 'tegas', 'kait', 'protoko']</t>
+          <t>['genap', 'dipimpin', 'agus, harimurti, yudhoyono', 'partai', 'demokrat', 'demokrat', 'solid', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['genap', 'pimpin', 'agus harimurti yudhoyono', 'partai', 'demokrat', 'demokrat', 'solid', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16449</v>
+        <v>27217</v>
       </c>
       <c r="C6" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rt icw mempertanyakan tidak adanya nama politikus pdip ihsan yunus dalam surat dakwaan kpk untuk terdakwa harry van sidabukke</t>
+          <t>rt genap satu tahun dipimpin ahy partai demokrat luar biasa demokrat solid https</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['rt', 'icw', 'mempertanyakan', 'tidak', 'adanya', 'nama', 'politikus', 'pdip', 'ihsan', 'yunus', 'dalam', 'surat', 'dakwaan', 'kpk', 'untuk', 'terdakwa', 'harry', 'van', 'sidabukke']</t>
+          <t>['rt', 'genap', 'satu', 'tahun', 'dipimpin', 'ahy', 'partai', 'demokrat', 'luar', 'biasa', 'demokrat', 'solid', 'https']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'genap', 'satu', 'tahun', 'dipimpin', 'agus, harimurti, yudhoyono', 'partai', 'demokrat', 'luar', 'biasa', 'demokrat', 'solid', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['icw', 'nama', 'politikus', 'pdip', 'ihsan', 'yunus', 'surat', 'dakwaan', 'kpk', 'terdakwa', 'harry', 'van', 'sidabukke']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['icw', 'nama', 'politikus', 'pdip', 'ihsan', 'yunus', 'surat', 'dakwa', 'kpk', 'dakwa', 'harry', 'van', 'sidabukke']</t>
+          <t>['genap', 'dipimpin', 'agus, harimurti, yudhoyono', 'partai', 'demokrat', 'demokrat', 'solid', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['genap', 'pimpin', 'agus harimurti yudhoyono', 'partai', 'demokrat', 'demokrat', 'solid', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16450</v>
+        <v>27218</v>
       </c>
       <c r="C7" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>rt st kaligawe pagi ini sing sabar yo om</t>
+          <t>rt nama ahok terseret saat tim tp beberkan habib rizieq belasan kali hampir dibunuh ada apa eh jahap banget sih kamyu</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['rt', 'st', 'kaligawe', 'pagi', 'ini', 'sing', 'sabar', 'yo', 'om']</t>
+          <t>['rt', 'nama', 'ahok', 'terseret', 'saat', 'tim', 'tp', 'beberkan', 'habib', 'rizieq', 'belasan', 'kali', 'hampir', 'dibunuh', 'ada', 'apa', 'eh', 'jahap', 'banget', 'sih', 'kamyu']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'nama', 'ahok', 'terseret', 'saat', 'tim', 'tetapi', 'beberkan', 'habib', 'rizieq', 'belasan', 'kali', 'hampir', 'dibunuh', 'ada', 'apa', 'eh', 'jahap', 'banget', 'sih', 'kamyu']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['st', 'kaligawe', 'pagi', 'sing', 'sabar', 'yo', 'om']</t>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['st', 'kaligawe', 'pagi', 'sing', 'sabar', 'yo', 'om']</t>
+          <t>['nama', 'ahok', 'terseret', 'tim', 'beberkan', 'habib', 'rizieq', 'belasan', 'kali', 'dibunuh', 'eh', 'jahap', 'banget', 'kamyu']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['nama', 'ahok', 'seret', 'tim', 'kan', 'habib', 'rizieq', 'bas', 'kali', 'bunuh', 'eh', 'jahap', 'banget', 'kamyu']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16451</v>
+        <v>27219</v>
       </c>
       <c r="C8" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rt keberhasilan bukanlah milik orang yang pintar keberhasilan adalah kepunyaan mereka yang senantiasa berusaha bj habibie</t>
+          <t xml:space="preserve">rt anggota komisi  dpr ri dave laksono mendorong tni polri dan bin dapat bersinergi melakukan peningkatan pengawasan ekstra </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['rt', 'keberhasilan', 'bukanlah', 'milik', 'orang', 'yang', 'pintar', 'keberhasilan', 'adalah', 'kepunyaan', 'mereka', 'yang', 'senantiasa', 'berusaha', 'bj', 'habibie']</t>
+          <t>['rt', 'anggota', 'komisi', 'dpr', 'ri', 'dave', 'laksono', 'mendorong', 'tni', 'polri', 'dan', 'bin', 'dapat', 'bersinergi', 'melakukan', 'peningkatan', 'pengawasan', 'ekstra']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'anggota', 'komisi', 'dewan, perwakilan, rakyat', 'ri', 'dave', 'laksono', 'mendorong', 'tentara, nasional, indonesia', 'kepolisian, republik, indonesia', 'dan', 'bin', 'dapat', 'bersinergi', 'melakukan', 'peningkatan', 'pengawasan', 'ekstra']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['keberhasilan', 'milik', 'orang', 'pintar', 'keberhasilan', 'kepunyaan', 'senantiasa', 'berusaha', 'bj', 'habibie']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['hasil', 'milik', 'orang', 'pintar', 'hasil', 'punya', 'senantiasa', 'usaha', 'bj', 'habibie']</t>
+          <t>['anggota', 'komisi', 'dewan, perwakilan, rakyat', 'ri', 'dave', 'laksono', 'mendorong', 'tentara, nasional, indonesia', 'kepolisian, republik, indonesia', 'bin', 'bersinergi', 'peningkatan', 'pengawasan', 'ekstra']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['anggota', 'komisi', 'dewan wakil rakyat', 'ri', 'dave', 'laksono', 'dorong', 'tentara nasional indonesia', 'polisi republik indonesia', 'bin', 'sinergi', 'tingkat', 'awas', 'ekstra']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16452</v>
+        <v>27220</v>
       </c>
       <c r="C9" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rt timnya sangat paham bahwa tiap kunjungan itu sebenarnya tidak ada isi maka diolahlah yang berbau sensasi mereka tahu persis</t>
+          <t>rt genap satu tahun dipimpin ahy partai demokrat luar biasa demokrat solid https</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['rt', 'timnya', 'sangat', 'paham', 'bahwa', 'tiap', 'kunjungan', 'itu', 'sebenarnya', 'tidak', 'ada', 'isi', 'maka', 'diolahlah', 'yang', 'berbau', 'sensasi', 'mereka', 'tahu', 'persis']</t>
+          <t>['rt', 'genap', 'satu', 'tahun', 'dipimpin', 'ahy', 'partai', 'demokrat', 'luar', 'biasa', 'demokrat', 'solid', 'https']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'genap', 'satu', 'tahun', 'dipimpin', 'agus, harimurti, yudhoyono', 'partai', 'demokrat', 'luar', 'biasa', 'demokrat', 'solid', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['timnya', 'paham', 'kunjungan', 'isi', 'diolahlah', 'berbau', 'sensasi', 'persis']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['tim', 'paham', 'kunjung', 'isi', 'olah', 'bau', 'sensasi', 'persis']</t>
+          <t>['genap', 'dipimpin', 'agus, harimurti, yudhoyono', 'partai', 'demokrat', 'demokrat', 'solid', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['genap', 'pimpin', 'agus harimurti yudhoyono', 'partai', 'demokrat', 'demokrat', 'solid', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16453</v>
+        <v>27221</v>
       </c>
       <c r="C10" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rt nkri harga mati maka menjaga keutuhanampkedaulatan nkri dari rongrongan separatisme mestinya harga mati juga dan yg dilakuk</t>
+          <t>rt kl utk mhindari polarisasi di pilpres disikapi pragmatis dg mengusulkan paslon jkwprabowo sama sj dg memberi karp</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rt', 'nkri', 'harga', 'mati', 'maka', 'menjaga', 'keutuhanampkedaulatan', 'nkri', 'dari', 'rongrongan', 'separatisme', 'mestinya', 'harga', 'mati', 'juga', 'dan', 'yg', 'dilakuk']</t>
+          <t>['rt', 'kl', 'utk', 'mhindari', 'polarisasi', 'di', 'pilpres', 'disikapi', 'pragmatis', 'dg', 'mengusulkan', 'paslon', 'jkwprabowo', 'sama', 'sj', 'dg', 'memberi', 'karp']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'kalau', 'untuk', 'mhindari', 'polarisasi', 'di', 'pemilihan, presiden', 'disikapi', 'pragmatis', 'dengan', 'mengusulkan', 'pasangan, calon', 'jkwprabowo', 'sama', 'saja', 'dengan', 'memberi', 'karp']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['nkri', 'harga', 'mati', 'menjaga', 'keutuhanampkedaulatan', 'nkri', 'rongrongan', 'separatisme', 'mestinya', 'harga', 'mati', 'dilakuk']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['nkri', 'harga', 'mati', 'jaga', 'keutuhanampkedaulatan', 'nkri', 'rongrong', 'separatisme', 'mesti', 'harga', 'mati', 'dilakuk']</t>
+          <t>['mhindari', 'polarisasi', 'pemilihan, presiden', 'disikapi', 'pragmatis', 'mengusulkan', 'pasangan, calon', 'jkwprabowo', 'karp']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['mhindari', 'polarisasi', 'pilih presiden', 'sikap', 'pragmatis', 'usul', 'pasang calon', 'jkwprabowo', 'karp']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16454</v>
+        <v>27222</v>
       </c>
       <c r="C11" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>rt secara keseluruhan vaksinasi yang berlangsung hari ini berjalan dengan aman para peserta mengaku baikbaik saja tidak mer</t>
+          <t>rt anies baswedan pembangunan jakarta international stadium sudah capai persen jis rencananya akan memiliki tribun tig</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['rt', 'secara', 'keseluruhan', 'vaksinasi', 'yang', 'berlangsung', 'hari', 'ini', 'berjalan', 'dengan', 'aman', 'para', 'peserta', 'mengaku', 'baikbaik', 'saja', 'tidak', 'mer']</t>
+          <t>['rt', 'anies', 'baswedan', 'pembangunan', 'jakarta', 'international', 'stadium', 'sudah', 'capai', 'persen', 'jis', 'rencananya', 'akan', 'memiliki', 'tribun', 'tig']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'anies', 'baswedan', 'pembangunan', 'jakarta', 'international', 'stadium', 'sudah', 'capai', 'persen', 'jis', 'rencananya', 'akan', 'memiliki', 'tribun', 'tig']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'berjalan', 'aman', 'peserta', 'mengaku', 'baikbaik', 'mer']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'jalan', 'aman', 'serta', 'aku', 'baikbaik', 'mer']</t>
+          <t>['anies', 'baswedan', 'pembangunan', 'jakarta', 'international', 'stadium', 'capai', 'persen', 'jis', 'rencananya', 'memiliki', 'tribun', 'tig']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['anies', 'baswedan', 'bangun', 'jakarta', 'international', 'stadium', 'capai', 'persen', 'jis', 'rencana', 'milik', 'tribun', 'tig']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16455</v>
+        <v>27223</v>
       </c>
       <c r="C12" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt pada pelaksanaanya vaksinasi turut melibatkan tenaga kesehatan dan vaksinator dari rsup persahabatan dinkes dki jakarta </t>
+          <t>rt mahfud md bicara budaya bahari laut selalu rukun darat saling bermusuhan menteri koordinator politik hukum dan keam</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rt', 'pada', 'pelaksanaanya', 'vaksinasi', 'turut', 'melibatkan', 'tenaga', 'kesehatan', 'dan', 'vaksinator', 'dari', 'rsup', 'persahabatan', 'dinkes', 'dki', 'jakarta']</t>
+          <t>['rt', 'mahfud', 'md', 'bicara', 'budaya', 'bahari', 'laut', 'selalu', 'rukun', 'darat', 'saling', 'bermusuhan', 'menteri', 'koordinator', 'politik', 'hukum', 'dan', 'keam']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'mahfud', 'md', 'bicara', 'budaya', 'bahari', 'laut', 'selalu', 'rukun', 'darat', 'saling', 'bermusuhan', 'menteri', 'koordinator', 'politik', 'hukum', 'dan', 'keam']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['pelaksanaanya', 'vaksinasi', 'melibatkan', 'tenaga', 'kesehatan', 'vaksinator', 'rsup', 'persahabatan', 'dinkes', 'dki', 'jakarta']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['pelaksanaanya', 'vaksinasi', 'libat', 'tenaga', 'sehat', 'vaksinator', 'rsup', 'sahabat', 'dinkes', 'dki', 'jakarta']</t>
+          <t>['mahfud', 'md', 'bicara', 'budaya', 'bahari', 'laut', 'rukun', 'darat', 'bermusuhan', 'menteri', 'koordinator', 'politik', 'hukum', 'keam']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['mahfud', 'md', 'bicara', 'budaya', 'bahari', 'laut', 'rukun', 'darat', 'musuh', 'menteri', 'koordinator', 'politik', 'hukum', 'keam']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16456</v>
+        <v>27224</v>
       </c>
       <c r="C13" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>rt vaksinasi bagi pendidik dan tenaga kependidikan ptk tahap pertama di wilayah dki jakarta secara resmi dibuka di sma ja</t>
+          <t>rt tni satgas yonmek qy melakukan kegiatan anjangsana dalam rangka mempererat tali silaturahmi yang sebelumnya telah dilaksana</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['rt', 'vaksinasi', 'bagi', 'pendidik', 'dan', 'tenaga', 'kependidikan', 'ptk', 'tahap', 'pertama', 'di', 'wilayah', 'dki', 'jakarta', 'secara', 'resmi', 'dibuka', 'di', 'sma', 'ja']</t>
+          <t>['rt', 'tni', 'satgas', 'yonmek', 'qy', 'melakukan', 'kegiatan', 'anjangsana', 'dalam', 'rangka', 'mempererat', 'tali', 'silaturahmi', 'yang', 'sebelumnya', 'telah', 'dilaksana']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'tentara, nasional, indonesia', 'satuan, tugas', 'yonmek', 'qy', 'melakukan', 'kegiatan', 'anjangsana', 'dalam', 'rangka', 'mempererat', 'tali', 'silaturahmi', 'yang', 'sebelumnya', 'telah', 'dilaksana']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'pendidik', 'tenaga', 'kependidikan', 'ptk', 'tahap', 'wilayah', 'dki', 'jakarta', 'resmi', 'dibuka', 'sma', 'ja']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'didik', 'tenaga', 'didik', 'ptk', 'tahap', 'wilayah', 'dki', 'jakarta', 'resmi', 'buka', 'sma', 'ja']</t>
+          <t>['tentara, nasional, indonesia', 'satuan, tugas', 'yonmek', 'qy', 'kegiatan', 'anjangsana', 'rangka', 'mempererat', 'tali', 'silaturahmi', 'dilaksana']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['tentara nasional indonesia', 'satu tugas', 'yonmek', 'qy', 'giat', 'anjangsana', 'rangka', 'erat', 'tali', 'silaturahmi', 'laksana']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16457</v>
+        <v>27225</v>
       </c>
       <c r="C14" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rt banjir kantor gubernur jateng giring psi dicariin netizen akun ignya diserbu warganet</t>
+          <t>rt konflik demokrat jokowi minta mahfud dan yasonna tak memihak</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rt', 'banjir', 'kantor', 'gubernur', 'jateng', 'giring', 'psi', 'dicariin', 'netizen', 'akun', 'ignya', 'diserbu', 'warganet']</t>
+          <t>['rt', 'konflik', 'demokrat', 'jokowi', 'minta', 'mahfud', 'dan', 'yasonna', 'tak', 'memihak']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'konflik', 'demokrat', 'jokowi', 'meminta', 'mahfud', 'dan', 'yasonna', 'tak', 'memihak']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['banjir', 'kantor', 'gubernur', 'jateng', 'giring', 'psi', 'dicariin', 'netizen', 'akun', 'ignya', 'diserbu', 'warganet']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['banjir', 'kantor', 'gubernur', 'jateng', 'giring', 'psi', 'dicariin', 'netizen', 'akun', 'ignya', 'serbu', 'warganet']</t>
+          <t>['konflik', 'demokrat', 'jokowi', 'mahfud', 'yasonna']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['konflik', 'demokrat', 'jokowi', 'mahfud', 'yasonna']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16458</v>
+        <v>27226</v>
       </c>
       <c r="C15" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>rt kerumunan belum tentu kerumunan tidak semua kerumunan itu kerumunan</t>
+          <t>rt makanya baca aturan dulu baru klb bukan klb dulu baru baca aturan</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['rt', 'kerumunan', 'belum', 'tentu', 'kerumunan', 'tidak', 'semua', 'kerumunan', 'itu', 'kerumunan']</t>
+          <t>['rt', 'makanya', 'baca', 'aturan', 'dulu', 'baru', 'klb', 'bukan', 'klb', 'dulu', 'baru', 'baca', 'aturan']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'makanya', 'baca', 'aturan', 'dulu', 'baru', 'klb', 'bukan', 'klb', 'dulu', 'baru', 'baca', 'aturan']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['kerumunan', 'kerumunan', 'kerumunan', 'kerumunan']</t>
+          <t>&lt;FreqDist with 8 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['kerumun', 'kerumun', 'kerumun', 'kerumun']</t>
+          <t>['baca', 'aturan', 'klb', 'klb', 'baca', 'aturan']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['baca', 'atur', 'klb', 'klb', 'baca', 'atur']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>16459</v>
+        <v>27227</v>
       </c>
       <c r="C16" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rt id rizal ramli romo tidak boleh berpolitik apalagi jilat kekuasaan</t>
+          <t>rt personel polda papua dan asn polri laksanakan vaksinasi</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt', 'id', 'rizal', 'ramli', 'romo', 'tidak', 'boleh', 'berpolitik', 'apalagi', 'jilat', 'kekuasaan']</t>
+          <t>['rt', 'personel', 'polda', 'papua', 'dan', 'asn', 'polri', 'laksanakan', 'vaksinasi']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'personel', 'kepolisian, daerah', 'papua', 'dan', 'aparatur, sipil, negara', 'kepolisian, republik, indonesia', 'laksanakan', 'vaksinasi']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['id', 'rizal', 'ramli', 'romo', 'berpolitik', 'jilat', 'kekuasaan']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['id', 'rizal', 'ramli', 'romo', 'politik', 'jilat', 'kuasa']</t>
+          <t>['personel', 'kepolisian, daerah', 'papua', 'aparatur, sipil, negara', 'kepolisian, republik, indonesia', 'laksanakan', 'vaksinasi']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['personel', 'polisi daerah', 'papua', 'aparatur sipil negara', 'polisi republik indonesia', 'laksana', 'vaksinasi']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16460</v>
+        <v>27228</v>
       </c>
       <c r="C17" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rt tv ketua dpd demokrat riau mohon ketum pecat kader pengkhianat kepada pengkhianat yang berasal dari internal kami mohon ke</t>
+          <t>rt hasan usulan mpr ri periode saat saya mempin sebagai ketua memang salah satu rekomendasi yang dikeluarkan adalah menge</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['rt', 'tv', 'ketua', 'dpd', 'demokrat', 'riau', 'mohon', 'ketum', 'pecat', 'kader', 'pengkhianat', 'kepada', 'pengkhianat', 'yang', 'berasal', 'dari', 'internal', 'kami', 'mohon', 'ke']</t>
+          <t>['rt', 'hasan', 'usulan', 'mpr', 'ri', 'periode', 'saat', 'saya', 'mempin', 'sebagai', 'ketua', 'memang', 'salah', 'satu', 'rekomendasi', 'yang', 'dikeluarkan', 'adalah', 'menge']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'hasan', 'usulan', 'majelis, permusyawaratan, rakyat', 'ri', 'periode', 'saat', 'saya', 'mempin', 'sebagai', 'ketua', 'memang', 'salah', 'satu', 'rekomendasi', 'yang', 'dikeluarkan', 'adalah', 'menge']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['tv', 'ketua', 'dpd', 'demokrat', 'riau', 'mohon', 'ketum', 'pecat', 'kader', 'pengkhianat', 'pengkhianat', 'berasal', 'internal', 'mohon']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['tv', 'ketua', 'dpd', 'demokrat', 'riau', 'mohon', 'tum', 'pecat', 'kader', 'khianat', 'khianat', 'asal', 'internal', 'mohon']</t>
+          <t>['hasan', 'usulan', 'majelis, permusyawaratan, rakyat', 'ri', 'periode', 'mempin', 'ketua', 'salah', 'rekomendasi', 'dikeluarkan', 'menge']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['hasan', 'usul', 'majelis musyawarat rakyat', 'ri', 'periode', 'pin', 'ketua', 'salah', 'rekomendasi', 'keluar', 'menge']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16461</v>
+        <v>27229</v>
       </c>
       <c r="C18" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt tv demokrat sumut minta ketum ahy bersihkan kader pengkhianat kita minta ketua umum ahy tegas thdp kader yg terindikasi </t>
+          <t>rt tunjukkan kasih sayang kepada anakanak kapolres tolikara pimpin pelaksanaan polisi pi ajar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['rt', 'tv', 'demokrat', 'sumut', 'minta', 'ketum', 'ahy', 'bersihkan', 'kader', 'pengkhianat', 'kita', 'minta', 'ketua', 'umum', 'ahy', 'tegas', 'thdp', 'kader', 'yg', 'terindikasi']</t>
+          <t>['rt', 'tunjukkan', 'kasih', 'sayang', 'kepada', 'anakanak', 'kapolres', 'tolikara', 'pimpin', 'pelaksanaan', 'polisi', 'pi', 'ajar']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'tunjukan', 'kasih', 'sayang', 'kepada', 'anakanak', 'kepala, kepolisian, resor', 'tolikara', 'pimpin', 'pelaksanaan', 'polisi', 'pi', 'ajar']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['tv', 'demokrat', 'sumut', 'ketum', 'ahy', 'bersihkan', 'kader', 'pengkhianat', 'ketua', 'ahy', 'thdp', 'kader', 'terindikasi']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['tv', 'demokrat', 'sumut', 'tum', 'ahy', 'sih', 'kader', 'khianat', 'ketua', 'ahy', 'thdp', 'kader', 'indikasi']</t>
+          <t>['tunjukan', 'kasih', 'sayang', 'anakanak', 'kepala, kepolisian, resor', 'tolikara', 'pimpin', 'pelaksanaan', 'polisi', 'pi', 'ajar']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['tunjuk', 'kasih', 'sayang', 'anakanak', 'kepala polisi resor', 'tolikara', 'pimpin', 'laksana', 'polisi', 'pi', 'ajar']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16462</v>
+        <v>27230</v>
       </c>
       <c r="C19" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>rt abidin di bawah komando mas ketum elektabilitas demokrat terus meningkat masuk dalam jajaran parpol dengan ele</t>
+          <t>rt baskoro terkadang kita akan diuji atas perencanaan yang kita buat diuji ikhlas sabar dan kuatnya mental di acara doa bersam</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rt', 'abidin', 'di', 'bawah', 'komando', 'mas', 'ketum', 'elektabilitas', 'demokrat', 'terus', 'meningkat', 'masuk', 'dalam', 'jajaran', 'parpol', 'dengan', 'ele']</t>
+          <t>['rt', 'baskoro', 'terkadang', 'kita', 'akan', 'diuji', 'atas', 'perencanaan', 'yang', 'kita', 'buat', 'diuji', 'ikhlas', 'sabar', 'dan', 'kuatnya', 'mental', 'di', 'acara', 'doa', 'bersam']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'baskoro', 'terkadang', 'kita', 'akan', 'diuji', 'atas', 'perencanaan', 'yang', 'kita', 'buat', 'diuji', 'ikhlas', 'sabar', 'dan', 'kuatnya', 'mental', 'di', 'acara', 'doa', 'bersam']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['abidin', 'komando', 'mas', 'ketum', 'elektabilitas', 'demokrat', 'meningkat', 'masuk', 'jajaran', 'parpol', 'ele']</t>
+          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['abidin', 'komando', 'mas', 'tum', 'elektabilitas', 'demokrat', 'tingkat', 'masuk', 'jajar', 'parpol', 'ele']</t>
+          <t>['baskoro', 'terkadang', 'diuji', 'perencanaan', 'diuji', 'ikhlas', 'sabar', 'kuatnya', 'mental', 'acara', 'doa', 'bersam']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['baskoro', 'terkadang', 'uji', 'rencana', 'uji', 'ikhlas', 'sabar', 'kuat', 'mental', 'acara', 'doa', 'bersam']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16463</v>
+        <v>27231</v>
       </c>
       <c r="C20" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rt papua juga punya kampung warnawarni bernama kampung yoboi di tepi danau sentani distrik sentani kabupaten jayapura</t>
+          <t>rt menkumham yasonna laoly menyebut hasil dari agenda yang diklaim sebagai klb partai demokrat di deli serdang telah diserahkan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['rt', 'papua', 'juga', 'punya', 'kampung', 'warnawarni', 'bernama', 'kampung', 'yoboi', 'di', 'tepi', 'danau', 'sentani', 'distrik', 'sentani', 'kabupaten', 'jayapura']</t>
+          <t>['rt', 'menkumham', 'yasonna', 'laoly', 'menyebut', 'hasil', 'dari', 'agenda', 'yang', 'diklaim', 'sebagai', 'klb', 'partai', 'demokrat', 'di', 'deli', 'serdang', 'telah', 'diserahkan']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'menteri, hukum, dan, hak, asasi, manusia', 'yasonna', 'laoly', 'menyebut', 'hasil', 'dari', 'agenda', 'yang', 'diklaim', 'sebagai', 'klb', 'partai', 'demokrat', 'di', 'deli', 'serdang', 'telah', 'diserahkan']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['papua', 'kampung', 'warnawarni', 'bernama', 'kampung', 'yoboi', 'tepi', 'danau', 'sentani', 'distrik', 'sentani', 'kabupaten', 'jayapura']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['papua', 'kampung', 'warnawarni', 'nama', 'kampung', 'yoboi', 'tepi', 'danau', 'sentani', 'distrik', 'sentani', 'kabupaten', 'jayapura']</t>
+          <t>['menteri, hukum, dan, hak, asasi, manusia', 'yasonna', 'laoly', 'menyebut', 'hasil', 'agenda', 'diklaim', 'klb', 'partai', 'demokrat', 'deli', 'serdang', 'diserahkan']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['menteri hukum dan hak asasi manusia', 'yasonna', 'laoly', 'sebut', 'hasil', 'agenda', 'klaim', 'klb', 'partai', 'demokrat', 'deli', 'serdang', 'serah']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16464</v>
+        <v>27232</v>
       </c>
       <c r="C21" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt mekanisme pendaftaran vaksinasi cukup mudah ptk yang terdaftar cukup membawa identitas diri ke lokasi vaksinasi apabila </t>
+          <t xml:space="preserve">rt jelang ramadan amp lebaran pemerintah pastikan ketersediaan amp harga bahan pokok terkendali telah berkoordinasi </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['rt', 'mekanisme', 'pendaftaran', 'vaksinasi', 'cukup', 'mudah', 'ptk', 'yang', 'terdaftar', 'cukup', 'membawa', 'identitas', 'diri', 'ke', 'lokasi', 'vaksinasi', 'apabila']</t>
+          <t>['rt', 'jelang', 'ramadan', 'amp', 'lebaran', 'pemerintah', 'pastikan', 'ketersediaan', 'amp', 'harga', 'bahan', 'pokok', 'terkendali', 'telah', 'berkoordinasi']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'jelang', 'ramadan', 'amp', 'lebaran', 'pemerintah', 'pastikan', 'ketersediaan', 'amp', 'harga', 'bahan', 'pokok', 'terkendali', 'telah', 'berkoordinasi']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['mekanisme', 'pendaftaran', 'vaksinasi', 'mudah', 'ptk', 'terdaftar', 'membawa', 'identitas', 'lokasi', 'vaksinasi']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['mekanisme', 'daftar', 'vaksinasi', 'mudah', 'ptk', 'daftar', 'bawa', 'identitas', 'lokasi', 'vaksinasi']</t>
+          <t>['jelang', 'ramadan', 'lebaran', 'pemerintah', 'pastikan', 'ketersediaan', 'harga', 'bahan', 'pokok', 'terkendali', 'berkoordinasi']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['jelang', 'ramadan', 'lebaran', 'perintah', 'pasti', 'sedia', 'harga', 'bahan', 'pokok', 'kendali', 'koordinasi']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16465</v>
+        <v>27233</v>
       </c>
       <c r="C22" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>rt proses vaksinasi dilakukan melalui tahapan tahap pertama penerima vaksinasi menuju ke meja untuk verifikasi data taha</t>
+          <t>rt kapolres jayawijaya bersama binmas noken polri gelar bhakti sosial dan tatap muka bersama toga tomas dan todat</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt', 'proses', 'vaksinasi', 'dilakukan', 'melalui', 'tahapan', 'tahap', 'pertama', 'penerima', 'vaksinasi', 'menuju', 'ke', 'meja', 'untuk', 'verifikasi', 'data', 'taha']</t>
+          <t>['rt', 'kapolres', 'jayawijaya', 'bersama', 'binmas', 'noken', 'polri', 'gelar', 'bhakti', 'sosial', 'dan', 'tatap', 'muka', 'bersama', 'toga', 'tomas', 'dan', 'todat']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'kepala, kepolisian, resor', 'jayawijaya', 'bersama', 'binaan, masyarakat', 'noken', 'kepolisian, republik, indonesia', 'gelar', 'bhakti', 'sosial', 'dan', 'tatap', 'muka', 'bersama', 'toga', 'thomas', 'dan', 'todat']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['proses', 'vaksinasi', 'tahapan', 'tahap', 'penerima', 'vaksinasi', 'meja', 'verifikasi', 'data', 'taha']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['proses', 'vaksinasi', 'tahap', 'tahap', 'terima', 'vaksinasi', 'meja', 'verifikasi', 'data', 'taha']</t>
+          <t>['kepala, kepolisian, resor', 'jayawijaya', 'binaan, masyarakat', 'noken', 'kepolisian, republik, indonesia', 'gelar', 'bhakti', 'sosial', 'tatap', 'muka', 'toga', 'thomas', 'todat']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['kepala polisi resor', 'jayawijaya', 'bina masyarakat', 'noken', 'polisi republik indonesia', 'gelar', 'bhakti', 'sosial', 'tatap', 'muka', 'toga', 'thomas', 'todat']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16466</v>
+        <v>27234</v>
       </c>
       <c r="C23" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>rt ketidakadilan dunia itu nyata distribusi vaksin di negara kaya vs negara miskin negara kaya telah membeli dan memesan</t>
+          <t>rt selamat pagi dari jakarta internasional stadium alhamdulillah progres pembangunan mencapai apr</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'ketidakadilan', 'dunia', 'itu', 'nyata', 'distribusi', 'vaksin', 'di', 'negara', 'kaya', 'vs', 'negara', 'miskin', 'negara', 'kaya', 'telah', 'membeli', 'dan', 'memesan']</t>
+          <t>['rt', 'selamat', 'pagi', 'dari', 'jakarta', 'internasional', 'stadium', 'alhamdulillah', 'progres', 'pembangunan', 'mencapai', 'apr']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'pagi', 'dari', 'jakarta', 'internasional', 'stadium', 'alhamdulillah', 'progres', 'pembangunan', 'mencapai', 'apr']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['ketidakadilan', 'dunia', 'nyata', 'distribusi', 'vaksin', 'negara', 'kaya', 'vs', 'negara', 'miskin', 'negara', 'kaya', 'membeli', 'memesan']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['ketidakadilan', 'dunia', 'nyata', 'distribusi', 'vaksin', 'negara', 'kaya', 'vs', 'negara', 'miskin', 'negara', 'kaya', 'beli', 'mes']</t>
+          <t>['selamat', 'pagi', 'jakarta', 'internasional', 'stadium', 'alhamdulillah', 'progres', 'pembangunan', 'mencapai', 'apr']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['selamat', 'pagi', 'jakarta', 'internasional', 'stadium', 'alhamdulillah', 'progres', 'bangun', 'capai', 'apr']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16467</v>
+        <v>27235</v>
       </c>
       <c r="C24" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rt napa</t>
+          <t xml:space="preserve">rt ini bukan soal minat amp tdk uud di atas presdn amp siapapun yg mnjabat presdn wajib tunduk di bwh uud yg sdh tntukan di ps </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'napa']</t>
+          <t>['rt', 'ini', 'bukan', 'soal', 'minat', 'amp', 'tdk', 'uud', 'di', 'atas', 'presdn', 'amp', 'siapapun', 'yg', 'mnjabat', 'presdn', 'wajib', 'tunduk', 'di', 'bwh', 'uud', 'yg', 'sdh', 'tntukan', 'di', 'ps']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'ini', 'bukan', 'soal', 'minat', 'amp', 'tidak', 'undang, undang, dasar', 'di', 'atas', 'presdn', 'amp', 'siapapun', 'yang', 'menjabat', 'presdn', 'wajib', 'tunduk', 'di', 'bawah', 'undang, undang, dasar', 'yang', 'sudah', 'tntukan', 'di', 'play, station']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['napa']</t>
+          <t>&lt;FreqDist with 20 samples and 26 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['napa']</t>
+          <t>['minat', 'undang, undang, dasar', 'presdn', 'menjabat', 'presdn', 'wajib', 'tunduk', 'undang, undang, dasar', 'tntukan', 'play, station']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['minat', 'undang undang dasar', 'presdn', 'jabat', 'presdn', 'wajib', 'tunduk', 'undang undang dasar', 'tntukan', 'play station']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16468</v>
+        <v>27236</v>
       </c>
       <c r="C25" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>rt pengungsi intan jaya mulai kekurangan pangan pemprov papua siapkan ton beras</t>
+          <t>rt satu tahun kepengurusan partai demokrat telah menyalurkan bantuan senilai miliar kepada masayara</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['rt', 'pengungsi', 'intan', 'jaya', 'mulai', 'kekurangan', 'pangan', 'pemprov', 'papua', 'siapkan', 'ton', 'beras']</t>
+          <t>['rt', 'satu', 'tahun', 'kepengurusan', 'partai', 'demokrat', 'telah', 'menyalurkan', 'bantuan', 'senilai', 'miliar', 'kepada', 'masayara']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'satu', 'tahun', 'kepengurusan', 'partai', 'demokrat', 'telah', 'menyalurkan', 'bantuan', 'senilai', 'miliar', 'kepada', 'masayara']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['pengungsi', 'intan', 'jaya', 'kekurangan', 'pangan', 'pemprov', 'papua', 'siapkan', 'ton', 'beras']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['ungsi', 'intan', 'jaya', 'kurang', 'pangan', 'pemprov', 'papua', 'siap', 'ton', 'beras']</t>
+          <t>['kepengurusan', 'partai', 'demokrat', 'menyalurkan', 'bantuan', 'senilai', 'miliar', 'masayara']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['urus', 'partai', 'demokrat', 'salur', 'bantu', 'nila', 'miliar', 'masayara']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>16469</v>
+        <v>27237</v>
       </c>
       <c r="C26" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>rt semakin hari semakin terang benderang siapa calo dari rencana klb abalabal ini semakin jelas siapa brokernya sekali la</t>
+          <t>rt satu tahun kepengurusan partai demokrat telah menyalurkan bantuan senilai miliar kepada masayaraka</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['rt', 'semakin', 'hari', 'semakin', 'terang', 'benderang', 'siapa', 'calo', 'dari', 'rencana', 'klb', 'abalabal', 'ini', 'semakin', 'jelas', 'siapa', 'brokernya', 'sekali', 'la']</t>
+          <t>['rt', 'satu', 'tahun', 'kepengurusan', 'partai', 'demokrat', 'telah', 'menyalurkan', 'bantuan', 'senilai', 'miliar', 'kepada', 'masayaraka']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'satu', 'tahun', 'kepengurusan', 'partai', 'demokrat', 'telah', 'menyalurkan', 'bantuan', 'senilai', 'miliar', 'kepada', 'masayaraka']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['terang', 'benderang', 'calo', 'rencana', 'klb', 'abalabal', 'brokernya', 'la']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['terang', 'benderang', 'calo', 'rencana', 'klb', 'abalabal', 'broker', 'la']</t>
+          <t>['kepengurusan', 'partai', 'demokrat', 'menyalurkan', 'bantuan', 'senilai', 'miliar', 'masayaraka']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['urus', 'partai', 'demokrat', 'salur', 'bantu', 'nila', 'miliar', 'masayaraka']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>16470</v>
+        <v>27238</v>
       </c>
       <c r="C27" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>rt tv petinggi pd di banten desak ahy pecat kader pembelot jika tdk sanggup membesarkan partai jangan merusak partai kesetia</t>
+          <t>rt tingkatkan kepedulian kepada sesama dengan saling berbagi rezeki</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['rt', 'tv', 'petinggi', 'pd', 'di', 'banten', 'desak', 'ahy', 'pecat', 'kader', 'pembelot', 'jika', 'tdk', 'sanggup', 'membesarkan', 'partai', 'jangan', 'merusak', 'partai', 'kesetia']</t>
+          <t>['rt', 'tingkatkan', 'kepedulian', 'kepada', 'sesama', 'dengan', 'saling', 'berbagi', 'rezeki']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'tingkatkan', 'kepedulian', 'kepada', 'sesama', 'dengan', 'saling', 'berbagi', 'rezeki']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['tv', 'petinggi', 'pd', 'banten', 'desak', 'ahy', 'pecat', 'kader', 'pembelot', 'sanggup', 'membesarkan', 'partai', 'merusak', 'partai', 'kesetia']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['tv', 'petinggi', 'pd', 'banten', 'desak', 'ahy', 'pecat', 'kader', 'belot', 'sanggup', 'besar', 'partai', 'rusak', 'partai', 'setia']</t>
+          <t>['tingkatkan', 'kepedulian', 'berbagi', 'rezeki']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['tingkat', 'peduli', 'bagi', 'rezeki']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>16471</v>
+        <v>27239</v>
       </c>
       <c r="C28" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rt curah hujan tinggi masyarakat diminta waspada</t>
+          <t>rt selamat hari pekerjaan sosial sedunia kita semua adalah makhluk sosial yang saling membutuhkan untuk pembangunan yang ber</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['rt', 'curah', 'hujan', 'tinggi', 'masyarakat', 'diminta', 'waspada']</t>
+          <t>['rt', 'selamat', 'hari', 'pekerjaan', 'sosial', 'sedunia', 'kita', 'semua', 'adalah', 'makhluk', 'sosial', 'yang', 'saling', 'membutuhkan', 'untuk', 'pembangunan', 'yang', 'ber']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'hari', 'pekerjaan', 'sosial', 'sedunia', 'kita', 'semua', 'adalah', 'makhluk', 'sosial', 'yang', 'saling', 'membutuhkan', 'untuk', 'pembangunan', 'yang', 'ber']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['curah', 'hujan', 'masyarakat', 'waspada']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['curah', 'hujan', 'masyarakat', 'waspada']</t>
+          <t>['selamat', 'pekerjaan', 'sosial', 'sedunia', 'makhluk', 'sosial', 'membutuhkan', 'pembangunan', 'ber']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['selamat', 'kerja', 'sosial', 'dunia', 'makhluk', 'sosial', 'butuh', 'bangun', 'ber']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>16472</v>
+        <v>27240</v>
       </c>
       <c r="C29" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>rt masyarakat membutuhkan keteladanan dan komitmen pemimpin nya ini masalah kita bersama tiap pemimpin mesti menjadi con</t>
+          <t>rt baskoro karena hati yang terlukai hanya akan terobati oleh ikhtiar tulus ikhlas hati dan kemudian berserah diri kepada ilahi</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['rt', 'masyarakat', 'membutuhkan', 'keteladanan', 'dan', 'komitmen', 'pemimpin', 'nya', 'ini', 'masalah', 'kita', 'bersama', 'tiap', 'pemimpin', 'mesti', 'menjadi', 'con']</t>
+          <t>['rt', 'baskoro', 'karena', 'hati', 'yang', 'terlukai', 'hanya', 'akan', 'terobati', 'oleh', 'ikhtiar', 'tulus', 'ikhlas', 'hati', 'dan', 'kemudian', 'berserah', 'diri', 'kepada', 'ilahi']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'baskoro', 'karena', 'hati', 'yang', 'terlukai', 'hanya', 'akan', 'terobati', 'oleh', 'ikhtiar', 'tulus', 'ikhlas', 'hati', 'dan', 'kemudian', 'berserah', 'diri', 'kepada', 'ilahi']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['masyarakat', 'membutuhkan', 'keteladanan', 'komitmen', 'pemimpin', 'pemimpin', 'mesti', 'con']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['masyarakat', 'butuh', 'teladan', 'komitmen', 'pimpin', 'pimpin', 'mesti', 'con']</t>
+          <t>['baskoro', 'hati', 'terlukai', 'terobati', 'ikhtiar', 'tulus', 'ikhlas', 'hati', 'berserah', 'ilahi']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['baskoro', 'hati', 'luka', 'obat', 'ikhtiar', 'tulus', 'ikhlas', 'hati', 'serah', 'ilahi']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16473</v>
+        <v>27241</v>
       </c>
       <c r="C30" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rt utang tembus rp  kemenkeu tanggung jawab negara bukan rakyat</t>
+          <t>rt dukung vaksinasi covid lindungi diri keluarga dan sesama</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['rt', 'utang', 'tembus', 'rp', 'kemenkeu', 'tanggung', 'jawab', 'negara', 'bukan', 'rakyat']</t>
+          <t>['rt', 'dukung', 'vaksinasi', 'covid', 'lindungi', 'diri', 'keluarga', 'dan', 'sesama']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'dukung', 'vaksinasi', 'covid', 'lindungi', 'diri', 'keluarga', 'dan', 'sesama']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['utang', 'tembus', 'rp', 'kemenkeu', 'tanggung', 'negara', 'rakyat']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['utang', 'tembus', 'rp', 'kemenkeu', 'tanggung', 'negara', 'rakyat']</t>
+          <t>['dukung', 'vaksinasi', 'covid', 'lindungi', 'keluarga']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['dukung', 'vaksinasi', 'covid', 'lindung', 'keluarga']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16474</v>
+        <v>27242</v>
       </c>
       <c r="C31" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>rt hari ini jokowi lantik gubernur terpilih sumatera barat kepri dan bengkulu di istana presiden joko widodo jokowi aka</t>
+          <t>rt mari bersama dukung vaksinasi bersama kita lawan covid</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rt', 'hari', 'ini', 'jokowi', 'lantik', 'gubernur', 'terpilih', 'sumatera', 'barat', 'kepri', 'dan', 'bengkulu', 'di', 'istana', 'presiden', 'joko', 'widodo', 'jokowi', 'aka']</t>
+          <t>['rt', 'mari', 'bersama', 'dukung', 'vaksinasi', 'bersama', 'kita', 'lawan', 'covid']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'mari', 'bersama', 'dukung', 'vaksinasi', 'bersama', 'kita', 'lawan', 'covid']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['jokowi', 'lantik', 'gubernur', 'terpilih', 'sumatera', 'barat', 'kepri', 'bengkulu', 'istana', 'presiden', 'joko', 'widodo', 'jokowi', 'aka']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['jokowi', 'lantik', 'gubernur', 'pilih', 'sumatera', 'barat', 'kepri', 'bengkulu', 'istana', 'presiden', 'joko', 'widodo', 'jokowi', 'aka']</t>
+          <t>['mari', 'dukung', 'vaksinasi', 'lawan', 'covid']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['mari', 'dukung', 'vaksinasi', 'lawan', 'covid']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>16475</v>
+        <v>27243</v>
       </c>
       <c r="C32" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rt bmkg prediksi hujan ekstrem jakarta siaga banjir hari ini</t>
+          <t>rt asmara gubernur dki jakarta meninjau jakarta international stadium jis bersandard internasional ini pastinya</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['rt', 'bmkg', 'prediksi', 'hujan', 'ekstrem', 'jakarta', 'siaga', 'banjir', 'hari', 'ini']</t>
+          <t>['rt', 'asmara', 'gubernur', 'dki', 'jakarta', 'meninjau', 'jakarta', 'international', 'stadium', 'jis', 'bersandard', 'internasional', 'ini', 'pastinya']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'asmara', 'gubernur', 'daerah, khusus, ibukota', 'jakarta', 'meninjau', 'jakarta', 'international', 'stadium', 'jis', 'bersandard', 'internasional', 'ini', 'pastinya']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['bmkg', 'prediksi', 'hujan', 'ekstrem', 'jakarta', 'siaga', 'banjir']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['bmkg', 'prediksi', 'hujan', 'ekstrem', 'jakarta', 'siaga', 'banjir']</t>
+          <t>['asmara', 'gubernur', 'daerah, khusus, ibukota', 'jakarta', 'meninjau', 'jakarta', 'international', 'stadium', 'jis', 'bersandard', 'internasional', 'pastinya']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['asmara', 'gubernur', 'daerah khusus ibukota', 'jakarta', 'tinjau', 'jakarta', 'international', 'stadium', 'jis', 'bersandard', 'internasional', 'pasti']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16476</v>
+        <v>27244</v>
       </c>
       <c r="C33" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rt ahy tidak hanya dalam tahun pemilu tetapi ke depan mari kita lebih aware lagi terhadap demokrasi kita kita kawal bersama ja</t>
+          <t>rt mari tetap terapkan prokes dimanapun kita berada</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rt', 'ahy', 'tidak', 'hanya', 'dalam', 'tahun', 'pemilu', 'tetapi', 'ke', 'depan', 'mari', 'kita', 'lebih', 'aware', 'lagi', 'terhadap', 'demokrasi', 'kita', 'kita', 'kawal', 'bersama', 'ja']</t>
+          <t>['rt', 'mari', 'tetap', 'terapkan', 'prokes', 'dimanapun', 'kita', 'berada']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'mari', 'tetap', 'terapkan', 'prokes', 'dimanapun', 'kita', 'berada']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['ahy', 'pemilu', 'mari', 'aware', 'demokrasi', 'kawal', 'ja']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['ahy', 'milu', 'mari', 'aware', 'demokrasi', 'kawal', 'ja']</t>
+          <t>['mari', 'terapkan', 'prokes', 'dimanapun']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['mari', 'terap', 'prokes', 'mana']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>16477</v>
+        <v>27245</v>
       </c>
       <c r="C34" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>rt pemasok senpi dan amunisi ke kkb ditangkap di nabire</t>
+          <t>rt potret lawas sby dan moeldoko semasa taruna akmil keren mana</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['rt', 'pemasok', 'senpi', 'dan', 'amunisi', 'ke', 'kkb', 'ditangkap', 'di', 'nabire']</t>
+          <t>['rt', 'potret', 'lawas', 'sby', 'dan', 'moeldoko', 'semasa', 'taruna', 'akmil', 'keren', 'mana']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'potret', 'lawas', 'susilo, bambang, yudhoyono', 'dan', 'moeldoko', 'semasa', 'taruna', 'akmil', 'keren', 'mana']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['pemasok', 'senpi', 'amunisi', 'kkb', 'ditangkap', 'nabire']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['pasok', 'senpi', 'amunisi', 'kkb', 'tangkap', 'nabire']</t>
+          <t>['potret', 'lawas', 'susilo, bambang, yudhoyono', 'moeldoko', 'taruna', 'akmil', 'keren']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['potret', 'lawas', 'susilo bambang yudhoyono', 'moeldoko', 'taruna', 'akmil', 'keren']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16478</v>
+        <v>27246</v>
       </c>
       <c r="C35" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt anak buah edhy prabowo akui kkp dapat jatah rp per ekor benih lobster yang diekspor</t>
+          <t>rt dukung mereka belajar untuk gapai citacita dan masa depan ceria</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'anak', 'buah', 'edhy', 'prabowo', 'akui', 'kkp', 'dapat', 'jatah', 'rp', 'per', 'ekor', 'benih', 'lobster', 'yang', 'diekspor']</t>
+          <t>['rt', 'dukung', 'mereka', 'belajar', 'untuk', 'gapai', 'citacita', 'dan', 'masa', 'depan', 'ceria']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'dukung', 'mereka', 'belajar', 'untuk', 'gapai', 'citacita', 'dan', 'masa', 'depan', 'ceria']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['anak', 'buah', 'edhy', 'prabowo', 'akui', 'kkp', 'jatah', 'rp', 'ekor', 'benih', 'lobster', 'diekspor']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['anak', 'buah', 'edhy', 'prabowo', 'aku', 'kkp', 'jatah', 'rp', 'ekor', 'benih', 'lobster', 'ekspor']</t>
+          <t>['dukung', 'belajar', 'gapai', 'citacita', 'ceria']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['dukung', 'ajar', 'gapai', 'citacita', 'ceria']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>16479</v>
+        <v>27247</v>
       </c>
       <c r="C36" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>rt ahy tegas memerintahkan mahkamah partai untuk memecat para kader aktif yang diduga terlibat pengambilalihan partai</t>
+          <t>rt majels minta sidang ditunda hari jumat habib rizieq minta diijinkan hadir langsung disidang tidak melalui zoom memang</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'ahy', 'tegas', 'memerintahkan', 'mahkamah', 'partai', 'untuk', 'memecat', 'para', 'kader', 'aktif', 'yang', 'diduga', 'terlibat', 'pengambilalihan', 'partai']</t>
+          <t>['rt', 'majels', 'minta', 'sidang', 'ditunda', 'hari', 'jumat', 'habib', 'rizieq', 'minta', 'diijinkan', 'hadir', 'langsung', 'disidang', 'tidak', 'melalui', 'zoom', 'memang']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'majels', 'meminta', 'sidang', 'ditunda', 'hari', 'jumat', 'habib', 'rizieq', 'meminta', 'diizinkan', 'hadir', 'langsung', 'disidang', 'tidak', 'melalui', 'zoom', 'memang']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['ahy', 'memerintahkan', 'mahkamah', 'partai', 'memecat', 'kader', 'aktif', 'diduga', 'terlibat', 'pengambilalihan', 'partai']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['ahy', 'perintah', 'mahkamah', 'partai', 'pecat', 'kader', 'aktif', 'duga', 'libat', 'pengambilalihan', 'partai']</t>
+          <t>['majels', 'sidang', 'ditunda', 'jumat', 'habib', 'rizieq', 'diizinkan', 'hadir', 'langsung', 'disidang', 'zoom']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['majels', 'sidang', 'tunda', 'jumat', 'habib', 'rizieq', 'izin', 'hadir', 'langsung', 'sidang', 'zoom']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>16480</v>
+        <v>27248</v>
       </c>
       <c r="C37" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rt teganya kpk temukan kasus insentif nakes disunat oleh rs</t>
+          <t>rt dprd nabire melalui komisi  yang membidangi masalah hukum dan pemerintahan minta masyarakat bijak dan tenang menerima ap</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['rt', 'teganya', 'kpk', 'temukan', 'kasus', 'insentif', 'nakes', 'disunat', 'oleh', 'rs']</t>
+          <t>['rt', 'dprd', 'nabire', 'melalui', 'komisi', 'yang', 'membidangi', 'masalah', 'hukum', 'dan', 'pemerintahan', 'minta', 'masyarakat', 'bijak', 'dan', 'tenang', 'menerima', 'ap']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'dewan, perwakilan, rakyat, daerah', 'nabire', 'melalui', 'komisi', 'yang', 'membidangi', 'masalah', 'hukum', 'dan', 'pemerintahan', 'meminta', 'masyarakat', 'bijak', 'dan', 'tenang', 'menerima', 'apa']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['teganya', 'kpk', 'temukan', 'insentif', 'nakes', 'disunat', 'rs']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['tega', 'kpk', 'temu', 'insentif', 'nakes', 'sunat', 'rs']</t>
+          <t>['dewan, perwakilan, rakyat, daerah', 'nabire', 'komisi', 'membidangi', 'hukum', 'pemerintahan', 'masyarakat', 'bijak', 'tenang', 'menerima']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['dewan wakil rakyat daerah', 'nabire', 'komisi', 'bidang', 'hukum', 'perintah', 'masyarakat', 'bijak', 'tenang', 'terima']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16481</v>
+        <v>27249</v>
       </c>
       <c r="C38" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rt sobat mau undang investasi di indonesia tapi masih ada uu ite oligarki pembakar lahan amp penambang perusak lin</t>
+          <t>rt tetap menjaga jarak dan menghindari kerumunan</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt', 'sobat', 'mau', 'undang', 'investasi', 'di', 'indonesia', 'tapi', 'masih', 'ada', 'uu', 'ite', 'oligarki', 'pembakar', 'lahan', 'amp', 'penambang', 'perusak', 'lin']</t>
+          <t>['rt', 'tetap', 'menjaga', 'jarak', 'dan', 'menghindari', 'kerumunan']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'tetap', 'menjaga', 'jarak', 'dan', 'menghindari', 'kerumunan']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['sobat', 'undang', 'investasi', 'indonesia', 'uu', 'ite', 'oligarki', 'pembakar', 'lahan', 'penambang', 'perusak', 'lin']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['sobat', 'undang', 'investasi', 'indonesia', 'uu', 'ite', 'oligarki', 'bakar', 'lahan', 'tambang', 'usak', 'lin']</t>
+          <t>['menjaga', 'jarak', 'menghindari', 'kerumunan']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['jaga', 'jarak', 'hindar', 'kerumun']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16482</v>
+        <v>27250</v>
       </c>
       <c r="C39" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt koko pagi tadi sengaja diaplot malam biar kurang yang memperhatikan efek cahaya matahari yang tidak sama berat sehingga pipi </t>
+          <t>rt wujudkan masyarakat sehat dengan vaksinasi covid</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['rt', 'koko', 'pagi', 'tadi', 'sengaja', 'diaplot', 'malam', 'biar', 'kurang', 'yang', 'memperhatikan', 'efek', 'cahaya', 'matahari', 'yang', 'tidak', 'sama', 'berat', 'sehingga', 'pipi']</t>
+          <t>['rt', 'wujudkan', 'masyarakat', 'sehat', 'dengan', 'vaksinasi', 'covid']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'wujudkan', 'masyarakat', 'sehat', 'dengan', 'vaksinasi', 'covid']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['koko', 'pagi', 'sengaja', 'diaplot', 'malam', 'memperhatikan', 'efek', 'cahaya', 'matahari', 'berat', 'pipi']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['koko', 'pagi', 'sengaja', 'diaplot', 'malam', 'perhati', 'efek', 'cahaya', 'matahari', 'berat', 'pipi']</t>
+          <t>['wujudkan', 'masyarakat', 'sehat', 'vaksinasi', 'covid']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['wujud', 'masyarakat', 'sehat', 'vaksinasi', 'covid']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>16483</v>
+        <v>27251</v>
       </c>
       <c r="C40" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>rt hudhi menurut uu no tahun presiden tidak termasuk simbol negara mas bro jadi ga valid pernyataanmu</t>
+          <t>rt pwi jaya kembali gelar anugerah mht</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['rt', 'hudhi', 'menurut', 'uu', 'no', 'tahun', 'presiden', 'tidak', 'termasuk', 'simbol', 'negara', 'mas', 'bro', 'jadi', 'ga', 'valid', 'pernyataanmu']</t>
+          <t>['rt', 'pwi', 'jaya', 'kembali', 'gelar', 'anugerah', 'mht']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'pwi', 'jaya', 'kembali', 'gelar', 'anugerah', 'mht']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['hudhi', 'uu', 'no', 'presiden', 'simbol', 'negara', 'mas', 'bro', 'valid', 'pernyataanmu']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['hudhi', 'uu', 'no', 'presiden', 'simbol', 'negara', 'mas', 'bro', 'valid', 'nyata']</t>
+          <t>['pwi', 'jaya', 'gelar', 'anugerah', 'mht']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['pwi', 'jaya', 'gelar', 'anugerah', 'mht']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>16484</v>
+        <v>27252</v>
       </c>
       <c r="C41" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>rt mensos risma ada yang ingin hancurkan negara kita lewat narkoba</t>
+          <t>rt dibawah kepemimpinan ahy partai demokrat secara tegas menolak ruu yg tidak sejalan dg rakyat ruu ciptaker ruu hip</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['rt', 'mensos', 'risma', 'ada', 'yang', 'ingin', 'hancurkan', 'negara', 'kita', 'lewat', 'narkoba']</t>
+          <t>['rt', 'dibawah', 'kepemimpinan', 'ahy', 'partai', 'demokrat', 'secara', 'tegas', 'menolak', 'ruu', 'yg', 'tidak', 'sejalan', 'dg', 'rakyat', 'ruu', 'ciptaker', 'ruu', 'hip']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'di, bawah', 'kepemimpinan', 'agus, harimurti, yudhoyono', 'partai', 'demokrat', 'secara', 'tegas', 'menolak', 'rancangan, undang, undang', 'yang', 'tidak', 'sejalan', 'dengan', 'rakyat', 'rancangan, undang, undang', 'ciptaker', 'rancangan, undang, undang', 'hip']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['mensos', 'risma', 'hancurkan', 'negara', 'narkoba']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['mensos', 'risma', 'hancur', 'negara', 'narkoba']</t>
+          <t>['di, bawah', 'kepemimpinan', 'agus, harimurti, yudhoyono', 'partai', 'demokrat', 'menolak', 'rancangan, undang, undang', 'sejalan', 'rakyat', 'rancangan, undang, undang', 'ciptaker', 'rancangan, undang, undang', 'hip']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['di bawah', 'pimpin', 'agus harimurti yudhoyono', 'partai', 'demokrat', 'tolak', 'rancang undang undang', 'jalan', 'rakyat', 'rancang undang undang', 'ciptaker', 'rancang undang undang', 'hip']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16485</v>
+        <v>27253</v>
       </c>
       <c r="C42" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rt just over  month ago america had no real plan to vaccinate most of the country that changed the moment we took office https</t>
+          <t>rt andi arief klb deliserdang gagal daftar elektronik memalukan</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['rt', 'just', 'over', 'month', 'ago', 'america', 'had', 'no', 'real', 'plan', 'to', 'vaccinate', 'most', 'of', 'the', 'country', 'that', 'changed', 'the', 'moment', 'we', 'took', 'office', 'https']</t>
+          <t>['rt', 'andi', 'arief', 'klb', 'deliserdang', 'gagal', 'daftar', 'elektronik', 'memalukan']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 23 samples and 24 outcomes&gt;</t>
+          <t>['rt', 'andi', 'arief', 'klb', 'deliserdang', 'gagal', 'daftar', 'elektronik', 'memalukan']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['just', 'over', 'month', 'ago', 'america', 'had', 'no', 'real', 'plan', 'to', 'vaccinate', 'most', 'of', 'the', 'country', 'that', 'changed', 'the', 'moment', 'we', 'took', 'office', 'https']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['just', 'over', 'month', 'ago', 'america', 'had', 'no', 'real', 'plan', 'to', 'vaccinate', 'most', 'of', 'the', 'country', 'that', 'changed', 'the', 'moment', 'we', 'took', 'office', 'https']</t>
+          <t>['andi', 'arief', 'klb', 'deliserdang', 'gagal', 'daftar', 'elektronik', 'memalukan']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['andi', 'arief', 'klb', 'serdang', 'gagal', 'daftar', 'elektronik', 'malu']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>16486</v>
+        <v>27254</v>
       </c>
       <c r="C43" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>rt didu ini logika apa lagi negara itu terdiri dari rakyat pemerintah dan wilayah utk bayar utang maka akan mengambil dari raky</t>
+          <t>rt ri revisi aturan ppnbm mobil listrik penting guna dorong sektor industri bev</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['rt', 'didu', 'ini', 'logika', 'apa', 'lagi', 'negara', 'itu', 'terdiri', 'dari', 'rakyat', 'pemerintah', 'dan', 'wilayah', 'utk', 'bayar', 'utang', 'maka', 'akan', 'mengambil', 'dari', 'raky']</t>
+          <t>['rt', 'ri', 'revisi', 'aturan', 'ppnbm', 'mobil', 'listrik', 'penting', 'guna', 'dorong', 'sektor', 'industri', 'bev']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'ri', 'revisi', 'aturan', 'ppnbm', 'mobil', 'listrik', 'penting', 'guna', 'dorong', 'sektor', 'industri', 'bev']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['didu', 'logika', 'negara', 'rakyat', 'pemerintah', 'wilayah', 'bayar', 'utang', 'mengambil', 'raky']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['didu', 'logika', 'negara', 'rakyat', 'perintah', 'wilayah', 'bayar', 'utang', 'ambil', 'raky']</t>
+          <t>['ri', 'revisi', 'aturan', 'ppnbm', 'mobil', 'listrik', 'dorong', 'sektor', 'industri', 'bev']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['ri', 'revisi', 'atur', 'ppnbm', 'mobil', 'listrik', 'dorong', 'sektor', 'industri', 'bev']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16487</v>
+        <v>27255</v>
       </c>
       <c r="C44" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>rt selamat pagi kaka semua besok jumat jangan lupa sedekah jumatnya ya mari berbagi untuk saudara kita sekecil apapu</t>
+          <t>rt sobat jika saya jadi pasti sudah berkemas amp ngepak barang mundur dari jabatan menkopolhukam mau ditaruh</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'pagi', 'kaka', 'semua', 'besok', 'jumat', 'jangan', 'lupa', 'sedekah', 'jumatnya', 'ya', 'mari', 'berbagi', 'untuk', 'saudara', 'kita', 'sekecil', 'apapu']</t>
+          <t>['rt', 'sobat', 'jika', 'saya', 'jadi', 'pasti', 'sudah', 'berkemas', 'amp', 'ngepak', 'barang', 'mundur', 'dari', 'jabatan', 'menkopolhukam', 'mau', 'ditaruh']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'sobat', 'jika', 'saya', 'jadi', 'pasti', 'sudah', 'berkemas', 'amp', 'ngepak', 'barang', 'mundur', 'dari', 'jabatan', 'menkopolhukam', 'mau', 'ditaruh']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'kaka', 'besok', 'jumat', 'lupa', 'sedekah', 'jumatnya', 'mari', 'berbagi', 'saudara', 'apapu']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'kaka', 'besok', 'jumat', 'lupa', 'sedekah', 'jumat', 'mari', 'bagi', 'saudara', 'apapu']</t>
+          <t>['sobat', 'berkemas', 'ngepak', 'barang', 'mundur', 'jabatan', 'menkopolhukam', 'ditaruh']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['sobat', 'kemas', 'ngepak', 'barang', 'mundur', 'jabat', 'menkopolhukam', 'taruh']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>16488</v>
+        <v>27256</v>
       </c>
       <c r="C45" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>rt kunjungan umkm harmusa oktaviani se anggota dpr ri fraksi partai demokrat di peternakan amp penggemukan sapi siti mujayad</t>
+          <t>rt udah ga jaman bekerja di dalam ruangan ber ac amp tertutup terlebih disaat pandemi spt ini</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['rt', 'kunjungan', 'umkm', 'harmusa', 'oktaviani', 'se', 'anggota', 'dpr', 'ri', 'fraksi', 'partai', 'demokrat', 'di', 'peternakan', 'amp', 'penggemukan', 'sapi', 'siti', 'mujayad']</t>
+          <t>['rt', 'udah', 'ga', 'jaman', 'bekerja', 'di', 'dalam', 'ruangan', 'ber', 'ac', 'amp', 'tertutup', 'terlebih', 'disaat', 'pandemi', 'spt', 'ini']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'sudah', 'tidak', 'jaman', 'bekerja', 'di', 'dalam', 'ruangan', 'ber', 'ac', 'amp', 'tertutup', 'terlebih', 'di, saat', 'pandemi', 'surat, pemberitahuan, tahunan', 'ini']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['kunjungan', 'umkm', 'harmusa', 'oktaviani', 'anggota', 'dpr', 'ri', 'fraksi', 'partai', 'demokrat', 'peternakan', 'penggemukan', 'sapi', 'siti', 'mujayad']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['kunjung', 'umkm', 'harmusa', 'oktaviani', 'anggota', 'dpr', 'ri', 'fraksi', 'partai', 'demokrat', 'terna', 'gemuk', 'sapi', 'siti', 'mujayad']</t>
+          <t>['jaman', 'ruangan', 'ber', 'ac', 'tertutup', 'di, saat', 'pandemi', 'surat, pemberitahuan, tahunan']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['jaman', 'ruang', 'ber', 'ac', 'tutup', 'di saat', 'pandemi', 'surat pemberitahuan tahun']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16489</v>
+        <v>27257</v>
       </c>
       <c r="C46" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt bgmn memahami ini pak bagaimana medecouple warga negara dan pajak ia menegaskan utang pemerintah akan </t>
+          <t>rt keluarga besar kementerian pertanian mengucapkan selamat ulang tahun ke menteri pertanian yl semoga selalu dibe</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['rt', 'bgmn', 'memahami', 'ini', 'pak', 'bagaimana', 'medecouple', 'warga', 'negara', 'dan', 'pajak', 'ia', 'menegaskan', 'utang', 'pemerintah', 'akan']</t>
+          <t>['rt', 'keluarga', 'besar', 'kementerian', 'pertanian', 'mengucapkan', 'selamat', 'ulang', 'tahun', 'ke', 'menteri', 'pertanian', 'yl', 'semoga', 'selalu', 'dibe']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'keluarga', 'besar', 'kementerian', 'pertanian', 'mengucapkan', 'selamat', 'ulang', 'tahun', 'ke', 'menteri', 'pertanian', 'yl', 'semoga', 'selalu', 'dibe']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['bgmn', 'memahami', 'medecouple', 'warga', 'negara', 'pajak', 'utang', 'pemerintah']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['bgmn', 'paham', 'medecouple', 'warga', 'negara', 'pajak', 'utang', 'perintah']</t>
+          <t>['keluarga', 'kementerian', 'pertanian', 'selamat', 'ulang', 'menteri', 'pertanian', 'yl', 'semoga', 'dibe']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['keluarga', 'menteri', 'tani', 'selamat', 'ulang', 'menteri', 'tani', 'yl', 'moga', 'dibe']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16490</v>
+        <v>27258</v>
       </c>
       <c r="C47" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>rt cyber alhamdulillah berkat dan warga jateng dan jabar bisa punya kolam renang pribadi coba</t>
+          <t>rt ri pemberdayaan perempuan bantu percepat pembangunan desa</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rt', 'cyber', 'alhamdulillah', 'berkat', 'dan', 'warga', 'jateng', 'dan', 'jabar', 'bisa', 'punya', 'kolam', 'renang', 'pribadi', 'coba']</t>
+          <t>['rt', 'ri', 'pemberdayaan', 'perempuan', 'bantu', 'percepat', 'pembangunan', 'desa']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'ri', 'pemberdayaan', 'perempuan', 'bantu', 'percepat', 'pembangunan', 'desa']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['cyber', 'alhamdulillah', 'berkat', 'warga', 'jateng', 'jabar', 'kolam', 'renang', 'pribadi', 'coba']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['cyber', 'alhamdulillah', 'berkat', 'warga', 'jateng', 'jabar', 'kolam', 'renang', 'pribadi', 'coba']</t>
+          <t>['ri', 'pemberdayaan', 'perempuan', 'bantu', 'percepat', 'pembangunan', 'desa']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['ri', 'daya', 'perempuan', 'bantu', 'cepat', 'bangun', 'desa']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16491</v>
+        <v>27259</v>
       </c>
       <c r="C48" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>rt ternyata pangkat tinggi bukanlah jaminan bagi seseorang untuk memiliki rasa malu</t>
+          <t>rt kenangan ksb dpp pertama prof dr subur budi santoso prof dr irzan tandjung vence mathin rumangkang http</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['rt', 'ternyata', 'pangkat', 'tinggi', 'bukanlah', 'jaminan', 'bagi', 'seseorang', 'untuk', 'memiliki', 'rasa', 'malu']</t>
+          <t>['rt', 'kenangan', 'ksb', 'dpp', 'pertama', 'prof', 'dr', 'subur', 'budi', 'santoso', 'prof', 'dr', 'irzan', 'tandjung', 'vence', 'mathin', 'rumangkang', 'http']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'kenangan', 'ksb', 'dasar, pengenaan, pajak', 'pertama', 'prof', 'dari', 'subur', 'budi', 'santoso', 'prof', 'dari', 'irzan', 'tanjung', 'vence', 'mathin', 'rumangkang', 'hypertext, transfer, protocol']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['pangkat', 'jaminan', 'memiliki', 'malu']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['pangkat', 'jamin', 'milik', 'malu']</t>
+          <t>['kenangan', 'ksb', 'dasar, pengenaan, pajak', 'prof', 'subur', 'budi', 'santoso', 'prof', 'irzan', 'tanjung', 'vence', 'mathin', 'rumangkang', 'hypertext, transfer, protocol']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['kenang', 'ksb', 'dasar kena pajak', 'prof', 'subur', 'budi', 'santoso', 'prof', 'irzan', 'tanjung', 'vence', 'mathin', 'rumangkang', 'hypertext transfer protocol']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16492</v>
+        <v>27260</v>
       </c>
       <c r="C49" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>rt assalamualaikum wr wb peran penting kita sebagai warga masyarakat adlh menjaga merawat serta budaya memilah sampah sert</t>
+          <t>rt pemprov papua kembali kirim pelajar oap ke jepang</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['rt', 'assalamualaikum', 'wr', 'wb', 'peran', 'penting', 'kita', 'sebagai', 'warga', 'masyarakat', 'adlh', 'menjaga', 'merawat', 'serta', 'budaya', 'memilah', 'sampah', 'sert']</t>
+          <t>['rt', 'pemprov', 'papua', 'kembali', 'kirim', 'pelajar', 'oap', 'ke', 'jepang']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'pemerintah, provinsi', 'papua', 'kembali', 'kirim', 'pelajar', 'oap', 'ke', 'jepang']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'wr', 'wb', 'peran', 'warga', 'masyarakat', 'adlh', 'menjaga', 'merawat', 'budaya', 'memilah', 'sampah', 'sert']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'wr', 'wb', 'peran', 'warga', 'masyarakat', 'adlh', 'jaga', 'rawat', 'budaya', 'mem', 'sampah', 'sert']</t>
+          <t>['pemerintah, provinsi', 'papua', 'kirim', 'pelajar', 'oap', 'jepang']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['perintah provinsi', 'papua', 'kirim', 'ajar', 'oap', 'jepang']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16493</v>
+        <v>27261</v>
       </c>
       <c r="C50" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>rt ahy hendak dikudeta sby bagai halilintar di siang bolong</t>
+          <t>rt satu tahun kepengurusan partai demokrat telah menyalurkan bantuan senilai miliar kepada masayarakat</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['rt', 'ahy', 'hendak', 'dikudeta', 'sby', 'bagai', 'halilintar', 'di', 'siang', 'bolong']</t>
+          <t>['rt', 'satu', 'tahun', 'kepengurusan', 'partai', 'demokrat', 'telah', 'menyalurkan', 'bantuan', 'senilai', 'miliar', 'kepada', 'masayarakat']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'satu', 'tahun', 'kepengurusan', 'partai', 'demokrat', 'telah', 'menyalurkan', 'bantuan', 'senilai', 'miliar', 'kepada', 'masyarakat']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['ahy', 'dikudeta', 'sby', 'halilintar', 'siang', 'bolong']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['ahy', 'kudeta', 'sby', 'halilintar', 'siang', 'bolong']</t>
+          <t>['kepengurusan', 'partai', 'demokrat', 'menyalurkan', 'bantuan', 'senilai', 'miliar', 'masyarakat']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['urus', 'partai', 'demokrat', 'salur', 'bantu', 'nila', 'miliar', 'masyarakat']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16494</v>
+        <v>27262</v>
       </c>
       <c r="C51" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>rt soal kasus tewasnya laskar fpi ini pesan kapolri listyo sigit pada kabareskrim</t>
+          <t>rt id hal tersebut disampaikan anggota kpu ri arief budiman dalam evaluasi pemilihan serentak yg diselenggarakan se</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['rt', 'soal', 'kasus', 'tewasnya', 'laskar', 'fpi', 'ini', 'pesan', 'kapolri', 'listyo', 'sigit', 'pada', 'kabareskrim']</t>
+          <t>['rt', 'id', 'hal', 'tersebut', 'disampaikan', 'anggota', 'kpu', 'ri', 'arief', 'budiman', 'dalam', 'evaluasi', 'pemilihan', 'serentak', 'yg', 'diselenggarakan', 'se']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'id', 'hal', 'tersebut', 'disampaikan', 'anggota', 'komisi, pemelihan, umum', 'ri', 'arief', 'budiman', 'dalam', 'evaluasi', 'pemilihan', 'serentak', 'yang', 'diselenggarakan', 'se']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['tewasnya', 'laskar', 'fpi', 'pesan', 'kapolri', 'listyo', 'sigit', 'kabareskrim']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['tewas', 'laskar', 'fpi', 'pesan', 'kapolri', 'listyo', 'sigit', 'kabareskrim']</t>
+          <t>['id', 'anggota', 'komisi, pemelihan, umum', 'ri', 'arief', 'budiman', 'evaluasi', 'pemilihan', 'serentak', 'diselenggarakan']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['id', 'anggota', 'komisi pemelihan umum', 'ri', 'arief', 'budiman', 'evaluasi', 'pilih', 'serentak', 'selenggara']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>16495</v>
+        <v>27263</v>
       </c>
       <c r="C52" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt sepertinya ada yang kurang happy dengan pernyataan sby malam ini</t>
+          <t xml:space="preserve">rt id hal penting usulan kpu dalam penyempurnaan uu pemilu dan uu pemilihan yaitu sistem rekapitulasi elektronik </t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt', 'sepertinya', 'ada', 'yang', 'kurang', 'happy', 'dengan', 'pernyataan', 'sby', 'malam', 'ini']</t>
+          <t>['rt', 'id', 'hal', 'penting', 'usulan', 'kpu', 'dalam', 'penyempurnaan', 'uu', 'pemilu', 'dan', 'uu', 'pemilihan', 'yaitu', 'sistem', 'rekapitulasi', 'elektronik']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'id', 'hal', 'penting', 'usulan', 'komisi, pemelihan, umum', 'dalam', 'penyempurnaan', 'undang, undang', 'pemilihan, umum', 'dan', 'undang, undang', 'pemilihan', 'yaitu', 'sistem', 'rekapitulasi', 'elektronik']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['happy', 'pernyataan', 'sby', 'malam']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['happy', 'nyata', 'sby', 'malam']</t>
+          <t>['id', 'usulan', 'komisi, pemelihan, umum', 'penyempurnaan', 'undang, undang', 'pemilihan, umum', 'undang, undang', 'pemilihan', 'sistem', 'rekapitulasi', 'elektronik']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['id', 'usul', 'komisi pemelihan umum', 'sempurna', 'undang undang', 'pilih umum', 'undang undang', 'pilih', 'sistem', 'rekapitulasi', 'elektronik']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>16496</v>
+        <v>27264</v>
       </c>
       <c r="C53" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>rt kabareskrim penyidik yang tidak jalankan surat edaran kapolri soal uu ite bakal kena hukuman</t>
+          <t>rt ahy satu tahun kepengurusan partai demokrat telah menyalurkan bantuan senilai miliar kepada masayarakat di</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'kabareskrim', 'penyidik', 'yang', 'tidak', 'jalankan', 'surat', 'edaran', 'kapolri', 'soal', 'uu', 'ite', 'bakal', 'kena', 'hukuman']</t>
+          <t>['rt', 'ahy', 'satu', 'tahun', 'kepengurusan', 'partai', 'demokrat', 'telah', 'menyalurkan', 'bantuan', 'senilai', 'miliar', 'kepada', 'masayarakat', 'di']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['rt', 'agus, harimurti, yudhoyono', 'satu', 'tahun', 'kepengurusan', 'partai', 'demokrat', 'telah', 'menyalurkan', 'bantuan', 'senilai', 'miliar', 'kepada', 'masyarakat', 'di']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['kabareskrim', 'penyidik', 'jalankan', 'surat', 'edaran', 'kapolri', 'uu', 'ite', 'kena', 'hukuman']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['kabareskrim', 'sidik', 'jalan', 'surat', 'edar', 'kapolri', 'uu', 'ite', 'kena', 'hukum']</t>
+          <t>['agus, harimurti, yudhoyono', 'kepengurusan', 'partai', 'demokrat', 'menyalurkan', 'bantuan', 'senilai', 'miliar', 'masyarakat']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['agus harimurti yudhoyono', 'urus', 'partai', 'demokrat', 'salur', 'bantu', 'nila', 'miliar', 'masyarakat']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>16497</v>
+        <v>27265</v>
       </c>
       <c r="C54" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt bro katanya ini di perumahan elite karawang bener ga bro</t>
+          <t>rt mengajak warga untuk terus menjaga kebersihan dan keindahan kota jakarta dengan tidak buang sampah sembar</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'bro', 'katanya', 'ini', 'di', 'perumahan', 'elite', 'karawang', 'bener', 'ga', 'bro']</t>
+          <t>['rt', 'mengajak', 'warga', 'untuk', 'terus', 'menjaga', 'kebersihan', 'dan', 'keindahan', 'kota', 'jakarta', 'dengan', 'tidak', 'buang', 'sampah', 'sembar']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'mengajak', 'warga', 'untuk', 'terus', 'menjaga', 'kebersihan', 'dan', 'keindahan', 'kota', 'jakarta', 'dengan', 'tidak', 'buang', 'sampah', 'sembar']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['bro', 'perumahan', 'elite', 'karawang', 'bener', 'bro']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['bro', 'rumah', 'elite', 'karawang', 'bener', 'bro']</t>
+          <t>['mengajak', 'warga', 'menjaga', 'kebersihan', 'keindahan', 'kota', 'jakarta', 'buang', 'sampah', 'sembar']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['ajak', 'warga', 'jaga', 'bersih', 'indah', 'kota', 'jakarta', 'buang', 'sampah', 'sembar']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16498</v>
+        <v>27266</v>
       </c>
       <c r="C55" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt perawatan secara berkala grebek lumpur pembuatan kolam olakan sampah setiap hari di bersihkan secara berkala pagi sia</t>
+          <t>rt kpk dalami kuota rokok terkait korupsi barang kena cukai</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'perawatan', 'secara', 'berkala', 'grebek', 'lumpur', 'pembuatan', 'kolam', 'olakan', 'sampah', 'setiap', 'hari', 'di', 'bersihkan', 'secara', 'berkala', 'pagi', 'sia']</t>
+          <t>['rt', 'kpk', 'dalami', 'kuota', 'rokok', 'terkait', 'korupsi', 'barang', 'kena', 'cukai']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'komisi, pemberantasan, korupsi', 'dalami', 'kuota', 'rokok', 'terkait', 'korupsi', 'barang', 'kena', 'cukai']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['perawatan', 'berkala', 'grebek', 'lumpur', 'pembuatan', 'kolam', 'olakan', 'sampah', 'bersihkan', 'berkala', 'pagi', 'sia']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['awat', 'kala', 'grebek', 'lumpur', 'buat', 'kolam', 'olak', 'sampah', 'sih', 'kala', 'pagi', 'sia']</t>
+          <t>['komisi, pemberantasan, korupsi', 'dalami', 'kuota', 'rokok', 'terkait', 'korupsi', 'barang', 'kena', 'cukai']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['komisi berantas korupsi', 'dalam', 'kuota', 'rokok', 'kait', 'korupsi', 'barang', 'kena', 'cukai']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16499</v>
+        <v>27267</v>
       </c>
       <c r="C56" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>rt lagi tujuh anggota polisi di jambi positif konsumsi narkoba</t>
+          <t>rt ini daftar program studi rumpun saintek di universitas padjadjaran dengan peminat terbanyak di sbmptn selai</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['rt', 'lagi', 'tujuh', 'anggota', 'polisi', 'di', 'jambi', 'positif', 'konsumsi', 'narkoba']</t>
+          <t>['rt', 'ini', 'daftar', 'program', 'studi', 'rumpun', 'saintek', 'di', 'universitas', 'padjadjaran', 'dengan', 'peminat', 'terbanyak', 'di', 'sbmptn', 'selai']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'ini', 'daftar', 'program', 'studi', 'rumpun', 'saintek', 'di', 'universitas', 'padjadjaran', 'dengan', 'peminat', 'terbanyak', 'di', 'seleksi, bersama, masuk, perguruan, tinggi, negeri', 'selai']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['tujuh', 'anggota', 'polisi', 'jambi', 'positif', 'konsumsi', 'narkoba']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['tujuh', 'anggota', 'polisi', 'jambi', 'positif', 'konsumsi', 'narkoba']</t>
+          <t>['daftar', 'program', 'studi', 'rumpun', 'saintek', 'universitas', 'padjadjaran', 'peminat', 'seleksi, bersama, masuk, perguruan, tinggi, negeri', 'selai']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['daftar', 'program', 'studi', 'rumpun', 'saintek', 'universitas', 'padjadjaran', 'minat', 'seleksi sama masuk guru tinggi negeri', 'selai']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16500</v>
+        <v>27268</v>
       </c>
       <c r="C57" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rt jakarta siaga</t>
+          <t>rt ri komisi iv desak pemerintah kaji ulang rencana impor beras</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rt', 'jakarta', 'siaga']</t>
+          <t>['rt', 'ri', 'komisi', 'iv', 'desak', 'pemerintah', 'kaji', 'ulang', 'rencana', 'impor', 'beras']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'ri', 'komisi', 'iv', 'desak', 'pemerintah', 'kaji', 'ulang', 'rencana', 'impor', 'beras']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['jakarta', 'siaga']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['jakarta', 'siaga']</t>
+          <t>['ri', 'komisi', 'iv', 'desak', 'pemerintah', 'kaji', 'ulang', 'rencana', 'impor', 'beras']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['ri', 'komisi', 'iv', 'desak', 'perintah', 'kaji', 'ulang', 'rencana', 'impor', 'beras']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16501</v>
+        <v>27269</v>
       </c>
       <c r="C58" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>rt tibatiba sby kembali ungkit ungkap ada petinggi bintang empat sengaja fitnah sby siapakah dia</t>
+          <t>rt wow tito sebut jokowi yang tunjuk pj gubernur dan</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['rt', 'tibatiba', 'sby', 'kembali', 'ungkit', 'ungkap', 'ada', 'petinggi', 'bintang', 'empat', 'sengaja', 'fitnah', 'sby', 'siapakah', 'dia']</t>
+          <t>['rt', 'wow', 'tito', 'sebut', 'jokowi', 'yang', 'tunjuk', 'pj', 'gubernur', 'dan']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'wah', 'tito', 'sebut', 'jokowi', 'yang', 'tunjuk', 'pj', 'gubernur', 'dan']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['tibatiba', 'sby', 'ungkit', 'petinggi', 'bintang', 'sengaja', 'fitnah', 'sby']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['tibatiba', 'sby', 'ungkit', 'petinggi', 'bintang', 'sengaja', 'fitnah', 'sby']</t>
+          <t>['tito', 'jokowi', 'pj', 'gubernur']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['tito', 'jokowi', 'pj', 'gubernur']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16502</v>
+        <v>27270</v>
       </c>
       <c r="C59" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>perempuan ini katanya ketum partai emas cuaca ekstrem jadi byk stres</t>
+          <t>rt bank indonesia meraih penghargaan reserve manager of the year dari central banking publications cbp penghargaan diberika</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['perempuan', 'ini', 'katanya', 'ketum', 'partai', 'emas', 'cuaca', 'ekstrem', 'jadi', 'byk', 'stres']</t>
+          <t>['rt', 'bank', 'indonesia', 'meraih', 'penghargaan', 'reserve', 'manager', 'of', 'the', 'year', 'dari', 'central', 'banking', 'publications', 'cbp', 'penghargaan', 'diberika']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'bank', 'indonesia', 'meraih', 'penghargaan', 'reserve', 'manajer', 'of', 'the', 'tahun', 'dari', 'central', 'banking', 'publications', 'cbp', 'penghargaan', 'diberika']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['perempuan', 'ketum', 'partai', 'emas', 'cuaca', 'ekstrem', 'byk', 'stres']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['perempuan', 'tum', 'partai', 'emas', 'cuaca', 'ekstrem', 'byk', 'stres']</t>
+          <t>['bank', 'indonesia', 'meraih', 'penghargaan', 'reserve', 'manajer', 'of', 'the', 'central', 'banking', 'publications', 'cbp', 'penghargaan', 'diberika']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['bank', 'indonesia', 'raih', 'harga', 'reserve', 'manajer', 'of', 'the', 'central', 'banking', 'publications', 'cbp', 'harga', 'diberika']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16503</v>
+        <v>27271</v>
       </c>
       <c r="C60" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt danau seluas kali lapangan sepak bola muncul di wilayah perbatasan mamuju dan majene danau tersebut muncul setelah gempa </t>
+          <t>rt ku amsal rancangan orang rajin adalah sematamata mendatangkan kelimpahan tetapi setiap orang yang tergesagesa hanya</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['rt', 'danau', 'seluas', 'kali', 'lapangan', 'sepak', 'bola', 'muncul', 'di', 'wilayah', 'perbatasan', 'mamuju', 'dan', 'majene', 'danau', 'tersebut', 'muncul', 'setelah', 'gempa']</t>
+          <t>['rt', 'ku', 'amsal', 'rancangan', 'orang', 'rajin', 'adalah', 'sematamata', 'mendatangkan', 'kelimpahan', 'tetapi', 'setiap', 'orang', 'yang', 'tergesagesa', 'hanya']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'ku', 'amsal', 'rancangan', 'orang', 'rajin', 'adalah', 'sematamata', 'mendatangkan', 'kelimpahan', 'tetapi', 'setiap', 'orang', 'yang', 'tergesagesa', 'hanya']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['danau', 'seluas', 'kali', 'lapangan', 'sepak', 'bola', 'muncul', 'wilayah', 'perbatasan', 'mamuju', 'majene', 'danau', 'muncul', 'gempa']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['danau', 'luas', 'kali', 'lapang', 'sepak', 'bola', 'muncul', 'wilayah', 'batas', 'mamuju', 'majene', 'danau', 'muncul', 'gempa']</t>
+          <t>['ku', 'amsal', 'rancangan', 'orang', 'rajin', 'sematamata', 'kelimpahan', 'orang', 'tergesagesa']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['ku', 'amsal', 'rancang', 'orang', 'rajin', 'sematamata', 'limpah', 'orang', 'tergesagesa']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16504</v>
+        <v>27272</v>
       </c>
       <c r="C61" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rt samsul dewan pimpinan daerah partai demokrat seluruh indonesia menyatakan sikap satu komando bersama ketum ahy</t>
+          <t>rt tidak ada permintaan dari pak sby ketua mtp maupun pengurus saya tidak pernah mengeluarkan dana untuk mahar se</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'samsul', 'dewan', 'pimpinan', 'daerah', 'partai', 'demokrat', 'seluruh', 'indonesia', 'menyatakan', 'sikap', 'satu', 'komando', 'bersama', 'ketum', 'ahy']</t>
+          <t>['rt', 'tidak', 'ada', 'permintaan', 'dari', 'pak', 'sby', 'ketua', 'mtp', 'maupun', 'pengurus', 'saya', 'tidak', 'pernah', 'mengeluarkan', 'dana', 'untuk', 'mahar', 'se']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'tidak', 'ada', 'permintaan', 'dari', 'pak', 'susilo, bambang, yudhoyono', 'ketua', 'mtp', 'maupun', 'pengurus', 'saya', 'tidak', 'pernah', 'mengeluarkan', 'dana', 'untuk', 'mahar', 'se']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['samsul', 'dewan', 'pimpinan', 'daerah', 'partai', 'demokrat', 'indonesia', 'sikap', 'komando', 'ketum', 'ahy']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['samsul', 'dewan', 'pimpin', 'daerah', 'partai', 'demokrat', 'indonesia', 'sikap', 'komando', 'tum', 'ahy']</t>
+          <t>['permintaan', 'susilo, bambang, yudhoyono', 'ketua', 'mtp', 'pengurus', 'mengeluarkan', 'dana', 'mahar']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['minta', 'susilo bambang yudhoyono', 'ketua', 'mtp', 'urus', 'keluar', 'dana', 'mahar']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16505</v>
+        <v>27273</v>
       </c>
       <c r="C62" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>sebenarnya pak ganjar bukan salah tapi tidak mampu atasi banjir</t>
+          <t>rt pemimpin baik adlh seorg yg seblm menjadi pemimpinia tlh menyatu dgn masyarakatnya dan membimbing mrkseakanakan dia adl</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['sebenarnya', 'pak', 'ganjar', 'bukan', 'salah', 'tapi', 'tidak', 'mampu', 'atasi', 'banjir']</t>
+          <t>['rt', 'pemimpin', 'baik', 'adlh', 'seorg', 'yg', 'seblm', 'menjadi', 'pemimpinia', 'tlh', 'menyatu', 'dgn', 'masyarakatnya', 'dan', 'membimbing', 'mrkseakanakan', 'dia', 'adl']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'pemimpin', 'baik', 'adalah', 'seorang', 'yang', 'sebelum', 'menjadi', 'pemimpinia', 'telah', 'menyatu', 'dengan', 'masyarakatnya', 'dan', 'membimbing', 'mrkseakanakan', 'dia', 'adalah']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['ganjar', 'salah', 'atasi', 'banjir']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['ganjar', 'salah', 'atas', 'banjir']</t>
+          <t>['pemimpin', 'pemimpinia', 'menyatu', 'masyarakatnya', 'membimbing', 'mrkseakanakan']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['pimpin', 'pemimpinia', 'satu', 'masyarakat', 'bimbing', 'mrkseakanakan']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16506</v>
+        <v>27274</v>
       </c>
       <c r="C63" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rt fadli zon kerumunan jokowi dianggap spontanitas kerumunan hrs diganjar tersangka</t>
+          <t>rt ahy tanggal maret genap satu tahun dipimpin oleh telah melakukan banyak gebrakan membantu masya</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['rt', 'fadli', 'zon', 'kerumunan', 'jokowi', 'dianggap', 'spontanitas', 'kerumunan', 'hrs', 'diganjar', 'tersangka']</t>
+          <t>['rt', 'ahy', 'tanggal', 'maret', 'genap', 'satu', 'tahun', 'dipimpin', 'oleh', 'telah', 'melakukan', 'banyak', 'gebrakan', 'membantu', 'masya']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'agus, harimurti, yudhoyono', 'tanggal', 'maret', 'genap', 'satu', 'tahun', 'dipimpin', 'oleh', 'telah', 'melakukan', 'banyak', 'gebrakan', 'membantu', 'masya']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['fadli', 'zon', 'kerumunan', 'jokowi', 'dianggap', 'spontanitas', 'kerumunan', 'hrs', 'diganjar', 'tersangka']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['fadli', 'zon', 'kerumun', 'jokowi', 'anggap', 'spontanitas', 'kerumun', 'hrs', 'ganjar', 'sangka']</t>
+          <t>['agus, harimurti, yudhoyono', 'tanggal', 'maret', 'genap', 'dipimpin', 'gebrakan', 'membantu', 'masya']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['agus harimurti yudhoyono', 'tanggal', 'maret', 'genap', 'pimpin', 'gebrak', 'bantu', 'masya']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16507</v>
+        <v>27275</v>
       </c>
       <c r="C64" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt ri menperin bersama menko perekonomian hrt menyerahkan bantuan juta masker kain buatan dalam </t>
+          <t>rt papua pemprov papua kirim pelajar oap ke jepang</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'ri', 'menperin', 'bersama', 'menko', 'perekonomian', 'hrt', 'menyerahkan', 'bantuan', 'juta', 'masker', 'kain', 'buatan', 'dalam']</t>
+          <t>['rt', 'papua', 'pemprov', 'papua', 'kirim', 'pelajar', 'oap', 'ke', 'jepang']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'papua', 'pemerintah, provinsi', 'papua', 'kirim', 'pelajar', 'oap', 'ke', 'jepang']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['ri', 'menperin', 'menko', 'perekonomian', 'hrt', 'menyerahkan', 'bantuan', 'juta', 'masker', 'kain', 'buatan']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['ri', 'menperin', 'menko', 'ekonomi', 'hrt', 'serah', 'bantu', 'juta', 'masker', 'kain', 'buat']</t>
+          <t>['papua', 'pemerintah, provinsi', 'papua', 'kirim', 'pelajar', 'oap', 'jepang']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['papua', 'perintah provinsi', 'papua', 'kirim', 'ajar', 'oap', 'jepang']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16508</v>
+        <v>27276</v>
       </c>
       <c r="C65" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>rt saja sangat mudah dirasakan kalau anis baswedan gubernur yg transparan dan akuntabel kecuali yg tdk mau menggunakan mata tel</t>
+          <t>rt mabes polri menyebutkan mantan direktur pt bosowa corporindo sadikin aksa yang telah ditetapkan sebagai tersangka kasus du</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['rt', 'saja', 'sangat', 'mudah', 'dirasakan', 'kalau', 'anis', 'baswedan', 'gubernur', 'yg', 'transparan', 'dan', 'akuntabel', 'kecuali', 'yg', 'tdk', 'mau', 'menggunakan', 'mata', 'tel']</t>
+          <t>['rt', 'mabes', 'polri', 'menyebutkan', 'mantan', 'direktur', 'pt', 'bosowa', 'corporindo', 'sadikin', 'aksa', 'yang', 'telah', 'ditetapkan', 'sebagai', 'tersangka', 'kasus', 'du']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'markas, besar', 'kepolisian, republik, indonesia', 'menyebutkan', 'mantan', 'direktur', 'pt', 'bosowa', 'corporindo', 'sadikin', 'aksa', 'yang', 'telah', 'ditetapkan', 'sebagai', 'tersangka', 'kasus', 'du']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['mudah', 'dirasakan', 'anis', 'baswedan', 'gubernur', 'transparan', 'akuntabel', 'kecuali', 'mata', 'tel']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['mudah', 'rasa', 'anis', 'baswedan', 'gubernur', 'transparan', 'akuntabel', 'kecuali', 'mata', 'tel']</t>
+          <t>['markas, besar', 'kepolisian, republik, indonesia', 'mantan', 'direktur', 'pt', 'bosowa', 'corporindo', 'sadikin', 'aksa', 'ditetapkan', 'tersangka', 'du']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['markas besar', 'polisi republik indonesia', 'mantan', 'direktur', 'pt', 'bosowa', 'corporindo', 'sadikin', 'aksa', 'tetap', 'sangka', 'du']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16509</v>
+        <v>27277</v>
       </c>
       <c r="C66" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>wagub dki banjir di daerah lain berharihari belum selesai di jakarta satu hari surut klik untuk baca</t>
+          <t>rt sidang perdana hrs kasus kerumunan petamburan mega mendung amp rs ummi bogordimulai mohon doa terbaik utk hrs</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['wagub', 'dki', 'banjir', 'di', 'daerah', 'lain', 'berharihari', 'belum', 'selesai', 'di', 'jakarta', 'satu', 'hari', 'surut', 'klik', 'untuk', 'baca']</t>
+          <t>['rt', 'sidang', 'perdana', 'hrs', 'kasus', 'kerumunan', 'petamburan', 'mega', 'mendung', 'amp', 'rs', 'ummi', 'bogordimulai', 'mohon', 'doa', 'terbaik', 'utk', 'hrs']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'sidang', 'perdana', 'harus', 'kasus', 'kerumunan', 'petamburan', 'mega', 'mendung', 'amp', 'rumah, sakit', 'ibu', 'bogordimulai', 'mohon', 'doa', 'terbaik', 'untuk', 'harus']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['wagub', 'dki', 'banjir', 'daerah', 'berharihari', 'selesai', 'jakarta', 'surut', 'klik', 'baca']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['wagub', 'dki', 'banjir', 'daerah', 'berharihari', 'selesai', 'jakarta', 'surut', 'klik', 'baca']</t>
+          <t>['sidang', 'perdana', 'kerumunan', 'petamburan', 'mega', 'mendung', 'rumah, sakit', 'bogordimulai', 'mohon', 'doa', 'terbaik']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['sidang', 'perdana', 'kerumun', 'tambur', 'mega', 'mendung', 'rumah sakit', 'bogordimulai', 'mohon', 'doa', 'baik']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16510</v>
+        <v>27278</v>
       </c>
       <c r="C67" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt the un warned that over million yemeni children under five are at risk of acute malnutrition of which could die </t>
+          <t>rt pa sahabat sidang telah resmi dibuka oleh sekretaris jenderal pbb antnio guterres dan diplomat sekaligus politikus turk</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'the', 'un', 'warned', 'that', 'over', 'million', 'yemeni', 'children', 'under', 'five', 'are', 'at', 'risk', 'of', 'acute', 'malnutrition', 'of', 'which', 'could', 'die']</t>
+          <t>['rt', 'pa', 'sahabat', 'sidang', 'telah', 'resmi', 'dibuka', 'oleh', 'sekretaris', 'jenderal', 'pbb', 'antnio', 'guterres', 'dan', 'diplomat', 'sekaligus', 'politikus', 'turk']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'pak', 'sahabat', 'sidang', 'telah', 'resmi', 'dibuka', 'oleh', 'sekretaris', 'jenderal', 'pbb', 'antnio', 'guterres', 'dan', 'diplomat', 'sekaligus', 'politikus', 'turk']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['the', 'un', 'warned', 'that', 'over', 'million', 'yemeni', 'children', 'under', 'five', 'are', 'at', 'risk', 'of', 'acute', 'malnutrition', 'of', 'which', 'could', 'die']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['the', 'un', 'warned', 'that', 'over', 'million', 'yen', 'children', 'under', 'five', 'are', 'at', 'risk', 'of', 'acute', 'malnutrition', 'of', 'which', 'could', 'die']</t>
+          <t>['sahabat', 'sidang', 'resmi', 'dibuka', 'sekretaris', 'jenderal', 'pbb', 'antnio', 'guterres', 'diplomat', 'politikus', 'turk']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['sahabat', 'sidang', 'resmi', 'buka', 'sekretaris', 'jenderal', 'pbb', 'antnio', 'guterres', 'diplomat', 'politikus', 'turk']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16511</v>
+        <v>27279</v>
       </c>
       <c r="C68" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>rt di negara maju yang pemerintahnya taat aturan menjunjung tinggi supremasi hukum dan keadilan ditegakkan penjara tidak diper</t>
+          <t>rt habib rizieq protes karena tidak bisa mendengar mengikuti sidang dengan baik live di kompastv suasana sidang</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['rt', 'di', 'negara', 'maju', 'yang', 'pemerintahnya', 'taat', 'aturan', 'menjunjung', 'tinggi', 'supremasi', 'hukum', 'dan', 'keadilan', 'ditegakkan', 'penjara', 'tidak', 'diper']</t>
+          <t>['rt', 'habib', 'rizieq', 'protes', 'karena', 'tidak', 'bisa', 'mendengar', 'mengikuti', 'sidang', 'dengan', 'baik', 'live', 'di', 'kompastv', 'suasana', 'sidang']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'habib', 'rizieq', 'protes', 'karena', 'tidak', 'bisa', 'mendengar', 'mengikuti', 'sidang', 'dengan', 'baik', 'live', 'di', 'kompastv', 'suasana', 'sidang']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['negara', 'maju', 'pemerintahnya', 'taat', 'aturan', 'menjunjung', 'supremasi', 'hukum', 'keadilan', 'ditegakkan', 'penjara', 'diper']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['negara', 'maju', 'perintah', 'taat', 'atur', 'junjung', 'supremasi', 'hukum', 'adil', 'tegak', 'penjara', 'per']</t>
+          <t>['habib', 'rizieq', 'protes', 'mendengar', 'mengikuti', 'sidang', 'live', 'kompastv', 'suasana', 'sidang']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['habib', 'rizieq', 'protes', 'dengar', 'ikut', 'sidang', 'live', 'kompastv', 'suasana', 'sidang']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16512</v>
+        <v>27280</v>
       </c>
       <c r="C69" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt bosenkan pas di rumah mau masak telur cuma dibuat mata sapi doang di video ini banyak cara untuk mengolah telur biar enggak </t>
+          <t>rt terimakasih semoga menginspirasi yang lain unt membantu pengungsi rohingya kalau bantuan pemerintah akan lebih bermaknaampbe</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['rt', 'bosenkan', 'pas', 'di', 'rumah', 'mau', 'masak', 'telur', 'cuma', 'dibuat', 'mata', 'sapi', 'doang', 'di', 'video', 'ini', 'banyak', 'cara', 'untuk', 'mengolah', 'telur', 'biar', 'enggak']</t>
+          <t>['rt', 'terimakasih', 'semoga', 'menginspirasi', 'yang', 'lain', 'unt', 'membantu', 'pengungsi', 'rohingya', 'kalau', 'bantuan', 'pemerintah', 'akan', 'lebih', 'bermaknaampbe']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
+          <t>['rt', 'terima, kasih', 'semoga', 'menginspirasi', 'yang', 'lain', 'untuk', 'membantu', 'pengungsi', 'rohingya', 'kalau', 'bantuan', 'pemerintah', 'akan', 'lebih', 'bermaknaampbe']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['bosenkan', 'pas', 'rumah', 'masak', 'telur', 'mata', 'sapi', 'doang', 'video', 'mengolah', 'telur']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['bosenkan', 'pas', 'rumah', 'masak', 'telur', 'mata', 'sapi', 'doang', 'video', 'olah', 'telur']</t>
+          <t>['terima, kasih', 'semoga', 'menginspirasi', 'membantu', 'pengungsi', 'rohingya', 'bantuan', 'pemerintah', 'bermaknaampbe']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'moga', 'inspirasi', 'bantu', 'ungsi', 'rohingya', 'bantu', 'perintah', 'bermaknaampbe']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16513</v>
+        <v>27281</v>
       </c>
       <c r="C70" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>semuanya hanya berlaku utk rakyatnya sementara dia sebagai pemimpin sesuka hatinya</t>
+          <t>rt hrs sampaikan alasan meminta utk dihadirkan langsung dipersidangan sidang diskors lagi</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['semuanya', 'hanya', 'berlaku', 'utk', 'rakyatnya', 'sementara', 'dia', 'sebagai', 'pemimpin', 'sesuka', 'hatinya']</t>
+          <t>['rt', 'hrs', 'sampaikan', 'alasan', 'meminta', 'utk', 'dihadirkan', 'langsung', 'dipersidangan', 'sidang', 'diskors', 'lagi']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'harus', 'sampaikan', 'alasan', 'meminta', 'untuk', 'dihadirkan', 'langsung', 'dipersidangan', 'sidang', 'diskors', 'lagi']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['berlaku', 'rakyatnya', 'pemimpin', 'sesuka', 'hatinya']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['laku', 'rakyat', 'pimpin', 'suka', 'hati']</t>
+          <t>['alasan', 'dihadirkan', 'langsung', 'dipersidangan', 'sidang', 'diskors']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['alas', 'hadir', 'langsung', 'sidang', 'sidang', 'skors']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16514</v>
+        <v>27282</v>
       </c>
       <c r="C71" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>rt pemerintah telah memprogramkan vaksin corona bagi guru dan tenaga pendidik namun kpai tetap meminta pemerintah hatihati me</t>
+          <t xml:space="preserve">rt betapa aku cemburu pada ia yang pandai menyembunyikan kebaikannya dunia tak melihatnya namun surga merindukannya uwais </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rt', 'pemerintah', 'telah', 'memprogramkan', 'vaksin', 'corona', 'bagi', 'guru', 'dan', 'tenaga', 'pendidik', 'namun', 'kpai', 'tetap', 'meminta', 'pemerintah', 'hatihati', 'me']</t>
+          <t>['rt', 'betapa', 'aku', 'cemburu', 'pada', 'ia', 'yang', 'pandai', 'menyembunyikan', 'kebaikannya', 'dunia', 'tak', 'melihatnya', 'namun', 'surga', 'merindukannya', 'uwais']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'betapa', 'aku', 'cemburu', 'pada', 'ia', 'yang', 'pandai', 'menyembunyikan', 'kebaikannya', 'dunia', 'tak', 'melihatnya', 'namun', 'surga', 'merindukannya', 'uwais']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['pemerintah', 'memprogramkan', 'vaksin', 'corona', 'guru', 'tenaga', 'pendidik', 'kpai', 'pemerintah', 'hatihati', 'me']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['perintah', 'program', 'vaksin', 'corona', 'guru', 'tenaga', 'didik', 'kpai', 'perintah', 'hatihati', 'me']</t>
+          <t>['betapa', 'cemburu', 'pandai', 'menyembunyikan', 'kebaikannya', 'dunia', 'surga', 'merindukannya', 'uwais']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['betapa', 'cemburu', 'pandai', 'sembunyi', 'baik', 'dunia', 'surga', 'rindu', 'uwais']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16515</v>
+        <v>27283</v>
       </c>
       <c r="C72" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>rt keganasan komjen agus andrianto ke anak buah di daerah kesaktian abu janda kena dampaknya</t>
+          <t>rt kasus benur kpk periksa pihak swasta terkait sitaan duit rp miliar</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['rt', 'keganasan', 'komjen', 'agus', 'andrianto', 'ke', 'anak', 'buah', 'di', 'daerah', 'kesaktian', 'abu', 'janda', 'kena', 'dampaknya']</t>
+          <t>['rt', 'kasus', 'benur', 'kpk', 'periksa', 'pihak', 'swasta', 'terkait', 'sitaan', 'duit', 'rp', 'miliar']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'kasus', 'benur', 'komisi, pemberantasan, korupsi', 'periksa', 'pihak', 'swasta', 'terkait', 'sitaan', 'duit', 'rupiah', 'miliar']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['keganasan', 'komjen', 'agus', 'andrianto', 'anak', 'buah', 'daerah', 'kesaktian', 'abu', 'janda', 'kena', 'dampaknya']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['ganas', 'komjen', 'agus', 'andrianto', 'anak', 'buah', 'daerah', 'sakti', 'abu', 'janda', 'kena', 'dampak']</t>
+          <t>['benur', 'komisi, pemberantasan, korupsi', 'periksa', 'swasta', 'terkait', 'sitaan', 'duit', 'rupiah', 'miliar']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['benur', 'komisi berantas korupsi', 'periksa', 'swasta', 'kait', 'sita', 'duit', 'rupiah', 'miliar']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16516</v>
+        <v>27284</v>
       </c>
       <c r="C73" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rt wapres ingin anggaran pembangunan papua di kl dikonsolidasikan</t>
+          <t>rt asmara mantul pak gubernur ikan hiu makan tomat</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'wapres', 'ingin', 'anggaran', 'pembangunan', 'papua', 'di', 'kl', 'dikonsolidasikan']</t>
+          <t>['rt', 'asmara', 'mantul', 'pak', 'gubernur', 'ikan', 'hiu', 'makan', 'tomat']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['rt', 'asmara', 'mantap, betul', 'pak', 'gubernur', 'ikan', 'hiu', 'makan', 'tomat']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>['wapres', 'anggaran', 'pembangunan', 'papua', 'kl', 'dikonsolidasikan']</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['wapres', 'anggar', 'bangun', 'papua', 'kl', 'konsolidasi']</t>
+          <t>['asmara', 'mantap, betul', 'gubernur', 'ikan', 'hiu', 'makan', 'tomat']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['asmara', 'mantap betul', 'gubernur', 'ikan', 'hiu', 'makan', 'tomat']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16517</v>
+        <v>27285</v>
       </c>
       <c r="C74" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt juta anak sekolah di ntt belum bisa berbahasa indonesia anak datang ke sekolah tetapi belum tentu berhasil belajar</t>
+          <t>rt  terima kasih atas laporan anda laporan anda sudah diproses dengan nomor tw silakan pantau prosesnya</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'juta', 'anak', 'sekolah', 'di', 'ntt', 'belum', 'bisa', 'berbahasa', 'indonesia', 'anak', 'datang', 'ke', 'sekolah', 'tetapi', 'belum', 'tentu', 'berhasil', 'belajar']</t>
+          <t>['rt', 'terima', 'kasih', 'atas', 'laporan', 'anda', 'laporan', 'anda', 'sudah', 'diproses', 'dengan', 'nomor', 'tw', 'silakan', 'pantau', 'prosesnya']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'terima', 'kasih', 'atas', 'laporan', 'anda', 'laporan', 'anda', 'sudah', 'diproses', 'dengan', 'nomor', 'tau', 'silakan', 'pantau', 'prosesnya']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['juta', 'anak', 'sekolah', 'ntt', 'berbahasa', 'indonesia', 'anak', 'sekolah', 'berhasil', 'belajar']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['juta', 'anak', 'sekolah', 'ntt', 'bahasa', 'indonesia', 'anak', 'sekolah', 'hasil', 'ajar']</t>
+          <t>['terima', 'kasih', 'laporan', 'laporan', 'diproses', 'nomor', 'silakan', 'pantau', 'prosesnya']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'lapor', 'lapor', 'proses', 'nomor', 'sila', 'pantau', 'proses']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>16518</v>
+        <v>27286</v>
       </c>
       <c r="C75" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>rt gubernur jawa tengah ganjar pranowo mengusulkan anggaran rp triliun ke pemerintah pusat untuk penanganan banjir di pes</t>
+          <t>rt saiful mujani waspadai indonesia perang saudara seperti myanmar negara kita jauh lebih kompleks</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['rt', 'gubernur', 'jawa', 'tengah', 'ganjar', 'pranowo', 'mengusulkan', 'anggaran', 'rp', 'triliun', 'ke', 'pemerintah', 'pusat', 'untuk', 'penanganan', 'banjir', 'di', 'pes']</t>
+          <t>['rt', 'saiful', 'mujani', 'waspadai', 'indonesia', 'perang', 'saudara', 'seperti', 'myanmar', 'negara', 'kita', 'jauh', 'lebih', 'kompleks']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'saiful', 'mujani', 'mewaspadai', 'indonesia', 'perang', 'saudara', 'seperti', 'myanmar', 'negara', 'kita', 'jauh', 'lebih', 'kompleks']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['gubernur', 'jawa', 'ganjar', 'pranowo', 'mengusulkan', 'anggaran', 'rp', 'triliun', 'pemerintah', 'pusat', 'penanganan', 'banjir', 'pes']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['gubernur', 'jawa', 'ganjar', 'pranowo', 'usul', 'anggar', 'rp', 'triliun', 'perintah', 'pusat', 'tangan', 'banjir', 'pes']</t>
+          <t>['saiful', 'mujani', 'mewaspadai', 'indonesia', 'perang', 'saudara', 'myanmar', 'negara', 'kompleks']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['saiful', 'mujani', 'waspada', 'indonesia', 'perang', 'saudara', 'myanmar', 'negara', 'kompleks']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16519</v>
+        <v>27287</v>
       </c>
       <c r="C76" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rt at the oversight committee usps hearing today  questioned postmaster general dejoy on delayed mail under his leader</t>
+          <t>rt idn semoga para masyaikh di tergerak mau dengan sungguh membantu ummat bebaskan hrs</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt', 'at', 'the', 'oversight', 'committee', 'usps', 'hearing', 'today', 'questioned', 'postmaster', 'general', 'dejoy', 'on', 'delayed', 'mail', 'under', 'his', 'leader']</t>
+          <t>['rt', 'idn', 'semoga', 'para', 'masyaikh', 'di', 'tergerak', 'mau', 'dengan', 'sungguh', 'membantu', 'ummat', 'bebaskan', 'hrs']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'idn', 'semoga', 'para', 'masyaikh', 'di', 'tergerak', 'mau', 'dengan', 'sungguh', 'membantu', 'umat', 'bebaskan', 'harus']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['at', 'the', 'oversight', 'committee', 'usps', 'hearing', 'today', 'questioned', 'postmaster', 'general', 'dejoy', 'on', 'delayed', 'mail', 'under', 'his', 'leader']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['at', 'the', 'oversight', 'committee', 'usps', 'hearing', 'today', 'questioned', 'postmaster', 'general', 'dejoy', 'on', 'delayed', 'mail', 'under', 'his', 'leader']</t>
+          <t>['idn', 'semoga', 'masyaikh', 'tergerak', 'sungguh', 'membantu', 'umat', 'bebaskan']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['idn', 'moga', 'masyaikh', 'gerak', 'sungguh', 'bantu', 'umat', 'bebas']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16520</v>
+        <v>27288</v>
       </c>
       <c r="C77" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt tni panglima tni marsekal tni hadi tjahjanto sip kembali melakukan mutasi dan promosi jabatan di lingkungan tni</t>
+          <t>rt knftraa berani dan tegas</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'tni', 'panglima', 'tni', 'marsekal', 'tni', 'hadi', 'tjahjanto', 'sip', 'kembali', 'melakukan', 'mutasi', 'dan', 'promosi', 'jabatan', 'di', 'lingkungan', 'tni']</t>
+          <t>['rt', 'knftraa', 'berani', 'dan', 'tegas']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'knftraa', 'berani', 'dan', 'tegas']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['tni', 'panglima', 'tni', 'marsekal', 'tni', 'hadi', 'tjahjanto', 'sip', 'mutasi', 'promosi', 'jabatan', 'lingkungan', 'tni']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['tni', 'panglima', 'tni', 'marsekal', 'tni', 'had', 'tjahjanto', 'sip', 'mutasi', 'promosi', 'jabat', 'lingkung', 'tni']</t>
+          <t>['knftraa', 'berani']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['knftraa', 'berani']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16521</v>
+        <v>27289</v>
       </c>
       <c r="C78" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ganjar minta anggaran rp triliun untuk penanganan banjir pantura</t>
+          <t>rt haha lelucon yg ndak lucu aseeem</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['ganjar', 'minta', 'anggaran', 'rp', 'triliun', 'untuk', 'penanganan', 'banjir', 'pantura']</t>
+          <t>['rt', 'haha', 'lelucon', 'yg', 'ndak', 'lucu', 'aseeem']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'haha', 'lelucon', 'yang', 'tidak', 'lucu', 'aseeem']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['ganjar', 'anggaran', 'rp', 'triliun', 'penanganan', 'banjir', 'pantura']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['ganjar', 'anggar', 'rp', 'triliun', 'tangan', 'banjir', 'pantura']</t>
+          <t>['haha', 'lelucon', 'lucu', 'aseeem']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['haha', 'lelucon', 'lucu', 'aseeem']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>16522</v>
+        <v>27290</v>
       </c>
       <c r="C79" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>rt kl tdk salah bbrp hr lalu om pelssy ada share jg berita ini oknum yg jual amunisi dan senpi ke kkb</t>
+          <t>rt kpk dalami pengurusan kuota rokok terkait korupsi cukai di bintan plt juru bicara kpk ali fikri mengatakan tim penyidi</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['rt', 'kl', 'tdk', 'salah', 'bbrp', 'hr', 'lalu', 'om', 'pelssy', 'ada', 'share', 'jg', 'berita', 'ini', 'oknum', 'yg', 'jual', 'amunisi', 'dan', 'senpi', 'ke', 'kkb']</t>
+          <t>['rt', 'kpk', 'dalami', 'pengurusan', 'kuota', 'rokok', 'terkait', 'korupsi', 'cukai', 'di', 'bintan', 'plt', 'juru', 'bicara', 'kpk', 'ali', 'fikri', 'mengatakan', 'tim', 'penyidi']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'komisi, pemberantasan, korupsi', 'dalami', 'pengurusan', 'kuota', 'rokok', 'terkait', 'korupsi', 'cukai', 'di', 'bintan', 'plt', 'juru', 'bicara', 'komisi, pemberantasan, korupsi', 'ali', 'fikri', 'mengatakan', 'tim', 'penyidi']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['kl', 'salah', 'bbrp', 'hr', 'om', 'pelssy', 'share', 'jg', 'berita', 'oknum', 'jual', 'amunisi', 'senpi', 'kkb']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['kl', 'salah', 'bbrp', 'hr', 'om', 'pelssy', 'share', 'jg', 'berita', 'oknum', 'jual', 'amunisi', 'senpi', 'kkb']</t>
+          <t>['komisi, pemberantasan, korupsi', 'dalami', 'pengurusan', 'kuota', 'rokok', 'terkait', 'korupsi', 'cukai', 'bintan', 'plt', 'juru', 'bicara', 'komisi, pemberantasan, korupsi', 'ali', 'fikri', 'tim', 'penyidi']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['komisi berantas korupsi', 'dalam', 'urus', 'kuota', 'rokok', 'kait', 'korupsi', 'cukai', 'bintan', 'plt', 'juru', 'bicara', 'komisi berantas korupsi', 'ali', 'fikri', 'tim', 'sidi']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16523</v>
+        <v>27291</v>
       </c>
       <c r="C80" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rt dki targetkan pembangunan jalur sepeda permanen rampung maret</t>
+          <t>rt ada yg nanya ngerti apa dia soal sepak bola jawaban</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'dki', 'targetkan', 'pembangunan', 'jalur', 'sepeda', 'permanen', 'rampung', 'maret']</t>
+          <t>['rt', 'ada', 'yg', 'nanya', 'ngerti', 'apa', 'dia', 'soal', 'sepak', 'bola', 'jawaban']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'ada', 'yang', 'bertanya', 'mengerti', 'apa', 'dia', 'soal', 'sepak', 'bola', 'jawaban']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['dki', 'targetkan', 'pembangunan', 'jalur', 'sepeda', 'permanen', 'rampung', 'maret']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['dki', 'target', 'bangun', 'jalur', 'sepeda', 'permanen', 'rampung', 'maret']</t>
+          <t>['mengerti', 'sepak', 'bola']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['erti', 'sepak', 'bola']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16524</v>
+        <v>27292</v>
       </c>
       <c r="C81" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>rt yang lagi rame kedatangan presiden joko widodo di maumere nusa tenggara timur ntt disambut warga dengan berkerumun</t>
+          <t>rt rakyat kaget sd tengah maret izin vaksin astra zeneca masih menunggu bpom eh mei sudah kadaluarsa</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['rt', 'yang', 'lagi', 'rame', 'kedatangan', 'presiden', 'joko', 'widodo', 'di', 'maumere', 'nusa', 'tenggara', 'timur', 'ntt', 'disambut', 'warga', 'dengan', 'berkerumun']</t>
+          <t>['rt', 'rakyat', 'kaget', 'sd', 'tengah', 'maret', 'izin', 'vaksin', 'astra', 'zeneca', 'masih', 'menunggu', 'bpom', 'eh', 'mei', 'sudah', 'kadaluarsa']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'rakyat', 'kaget', 'sekolah, dasar', 'tengah', 'maret', 'izin', 'vaksin', 'astra', 'zeneca', 'masih', 'menunggu', 'badan, pengawas, obat, dan, makanan', 'eh', 'mei', 'sudah', 'kadaluarsa']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['rame', 'kedatangan', 'presiden', 'joko', 'widodo', 'maumere', 'nusa', 'tenggara', 'timur', 'ntt', 'disambut', 'warga', 'berkerumun']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['rame', 'datang', 'presiden', 'joko', 'widodo', 'maumere', 'nusa', 'tenggara', 'timur', 'ntt', 'sambut', 'warga', 'kerumun']</t>
+          <t>['rakyat', 'kaget', 'sekolah, dasar', 'maret', 'izin', 'vaksin', 'astra', 'zeneca', 'menunggu', 'badan, pengawas, obat, dan, makanan', 'eh', 'mei', 'kadaluarsa']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['rakyat', 'kaget', 'sekolah dasar', 'maret', 'izin', 'vaksin', 'astra', 'zeneca', 'tunggu', 'badan awas obat dan makan', 'eh', 'mei', 'kadaluarsa']</t>
         </is>
       </c>
     </row>
@@ -3355,30 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16525</v>
+        <v>27293</v>
       </c>
       <c r="C82" t="n">
-        <v>206</v>
-      </c>
-      <c r="D82" t="inlineStr"/>
+        <v>322</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>rt didu semoga pak  diberikan kesembuhan oleh allah</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'didu', 'semoga', 'pak', 'diberikan', 'kesembuhan', 'oleh', 'allah']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'didu', 'semoga', 'pak', 'diberikan', 'kesembuhan', 'oleh', 'allah']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['didu', 'semoga', 'kesembuhan', 'allah']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['didu', 'moga', 'sembuh', 'allah']</t>
         </is>
       </c>
     </row>
@@ -3387,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16526</v>
+        <v>27294</v>
       </c>
       <c r="C83" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>rt idi sebut kerumunan di ntt salah protokoler bukan jokowi</t>
+          <t>rt live sidang perdana ibhrs di pn jakarta timur di eradotid youtube channel cukup banyak masyarakat hadir memberikan duku</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['rt', 'idi', 'sebut', 'kerumunan', 'di', 'ntt', 'salah', 'protokoler', 'bukan', 'jokowi']</t>
+          <t>['rt', 'live', 'sidang', 'perdana', 'ibhrs', 'di', 'pn', 'jakarta', 'timur', 'di', 'eradotid', 'youtube', 'channel', 'cukup', 'banyak', 'masyarakat', 'hadir', 'memberikan', 'duku']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'live', 'sidang', 'perdana', 'ibhrs', 'di', 'pengadilan, negeri', 'jakarta', 'timur', 'di', 'eradotid', 'youtube', 'channel', 'cukup', 'banyak', 'masyarakat', 'hadir', 'memberikan', 'duku']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['idi', 'kerumunan', 'ntt', 'salah', 'protokoler', 'jokowi']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['idi', 'kerumun', 'ntt', 'salah', 'protokoler', 'jokowi']</t>
+          <t>['live', 'sidang', 'perdana', 'ibhrs', 'pengadilan, negeri', 'jakarta', 'timur', 'eradotid', 'youtube', 'channel', 'masyarakat', 'hadir', 'duku']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['live', 'sidang', 'perdana', 'ibhrs', 'adil negeri', 'jakarta', 'timur', 'eradotid', 'youtube', 'channel', 'masyarakat', 'hadir', 'duku']</t>
         </is>
       </c>
     </row>
@@ -3423,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16527</v>
+        <v>27295</v>
       </c>
       <c r="C84" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>rt pernah gak terjadi pelunakan uu hukum untuk menteri dpr panglima tni dan polri kalau enggak abu janda memang luar bi</t>
+          <t>rt menteri keuangan sri mulyani yakin indonesia berpotensi jadi pemain utama industri bev dunia simak selengkapnya</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['rt', 'pernah', 'gak', 'terjadi', 'pelunakan', 'uu', 'hukum', 'untuk', 'menteri', 'dpr', 'panglima', 'tni', 'dan', 'polri', 'kalau', 'enggak', 'abu', 'janda', 'memang', 'luar', 'bi']</t>
+          <t>['rt', 'menteri', 'keuangan', 'sri', 'mulyani', 'yakin', 'indonesia', 'berpotensi', 'jadi', 'pemain', 'utama', 'industri', 'bev', 'dunia', 'simak', 'selengkapnya']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'menteri', 'keuangan', 'sri', 'mulyani', 'yakin', 'indonesia', 'berpotensi', 'jadi', 'pemain', 'utama', 'industri', 'bev', 'dunia', 'simak', 'selengkapnya']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['pelunakan', 'uu', 'hukum', 'menteri', 'dpr', 'panglima', 'tni', 'polri', 'abu', 'janda', 'bi']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['lunak', 'uu', 'hukum', 'menteri', 'dpr', 'panglima', 'tni', 'polri', 'abu', 'janda', 'bi']</t>
+          <t>['menteri', 'keuangan', 'sri', 'mulyani', 'indonesia', 'berpotensi', 'pemain', 'utama', 'industri', 'bev', 'dunia', 'simak', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['menteri', 'uang', 'sri', 'mulyani', 'indonesia', 'potensi', 'main', 'utama', 'industri', 'bev', 'dunia', 'simak', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -3459,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16528</v>
+        <v>27296</v>
       </c>
       <c r="C85" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>rt ahy keunggulan ahy mengagetkan mengingat posisinya bukan sebagai pejabat negara maupun kepala daerah kami bersama ahy</t>
+          <t>rt habib rizieq hadiri sidang perdana kasus kerumunan tes swab secara virtual</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['rt', 'ahy', 'keunggulan', 'ahy', 'mengagetkan', 'mengingat', 'posisinya', 'bukan', 'sebagai', 'pejabat', 'negara', 'maupun', 'kepala', 'daerah', 'kami', 'bersama', 'ahy']</t>
+          <t>['rt', 'habib', 'rizieq', 'hadiri', 'sidang', 'perdana', 'kasus', 'kerumunan', 'tes', 'swab', 'secara', 'virtual']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'habib', 'rizieq', 'hadiri', 'sidang', 'perdana', 'kasus', 'kerumunan', 'tes', 'swab', 'secara', 'virtual']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['ahy', 'keunggulan', 'ahy', 'mengagetkan', 'posisinya', 'pejabat', 'negara', 'kepala', 'daerah', 'ahy']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['ahy', 'unggul', 'ahy', 'kaget', 'posisi', 'jabat', 'negara', 'kepala', 'daerah', 'ahy']</t>
+          <t>['habib', 'rizieq', 'hadiri', 'sidang', 'perdana', 'kerumunan', 'tes', 'swab', 'virtual']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['habib', 'rizieq', 'hadir', 'sidang', 'perdana', 'kerumun', 'tes', 'swab', 'virtual']</t>
         </is>
       </c>
     </row>
@@ -3495,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16529</v>
+        <v>27297</v>
       </c>
       <c r="C86" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>rt sosok begawan ekonomi rizal ramli dinilai mampu dan memiliki kemampuan untuk menjadi presiden atau wakil presiden di pilp</t>
+          <t>rt masih menemukan sampah plastik yang terbawa sampai ke kepulauan seribu pernahkah sobat lingkungan mene</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['rt', 'sosok', 'begawan', 'ekonomi', 'rizal', 'ramli', 'dinilai', 'mampu', 'dan', 'memiliki', 'kemampuan', 'untuk', 'menjadi', 'presiden', 'atau', 'wakil', 'presiden', 'di', 'pilp']</t>
+          <t>['rt', 'masih', 'menemukan', 'sampah', 'plastik', 'yang', 'terbawa', 'sampai', 'ke', 'kepulauan', 'seribu', 'pernahkah', 'sobat', 'lingkungan', 'mene']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'masih', 'menemukan', 'sampah', 'plastik', 'yang', 'terbawa', 'sampai', 'ke', 'kepulauan', 'seribu', 'pernahkah', 'sobat', 'lingkungan', 'mene']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['sosok', 'begawan', 'ekonomi', 'rizal', 'ramli', 'dinilai', 'memiliki', 'kemampuan', 'presiden', 'wakil', 'presiden', 'pilp']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['sosok', 'begawan', 'ekonomi', 'rizal', 'ramli', 'nilai', 'milik', 'mampu', 'presiden', 'wakil', 'presiden', 'pilp']</t>
+          <t>['menemukan', 'sampah', 'plastik', 'terbawa', 'kepulauan', 'seribu', 'pernahkah', 'sobat', 'lingkungan', 'mene']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['temu', 'sampah', 'plastik', 'bawa', 'pulau', 'ribu', 'pernah', 'sobat', 'lingkung', 'mene']</t>
         </is>
       </c>
     </row>
@@ -3531,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16530</v>
+        <v>27298</v>
       </c>
       <c r="C87" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>rt ibu bersuara soal kebebasan berpendapat dan membahasnya bersama pak amp pak nantik</t>
+          <t>rt jakarta international stadium night mode on</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['rt', 'ibu', 'bersuara', 'soal', 'kebebasan', 'berpendapat', 'dan', 'membahasnya', 'bersama', 'pak', 'amp', 'pak', 'nantik']</t>
+          <t>['rt', 'jakarta', 'international', 'stadium', 'night', 'mode', 'on']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'international', 'stadium', 'night', 'mode', 'on']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['bersuara', 'kebebasan', 'berpendapat', 'membahasnya', 'nantik']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['suara', 'bebas', 'dapat', 'bahas', 'nantik']</t>
+          <t>['jakarta', 'international', 'stadium', 'night', 'mode', 'on']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['jakarta', 'international', 'stadium', 'night', 'mode', 'on']</t>
         </is>
       </c>
     </row>
@@ -3567,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16531</v>
+        <v>27299</v>
       </c>
       <c r="C88" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>rt polri news line transformasi polri yang presisi kamis februari pukul wib narasumber brigjen pol</t>
+          <t>rt saat senja jakarta international stadium</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['rt', 'polri', 'news', 'line', 'transformasi', 'polri', 'yang', 'presisi', 'kamis', 'februari', 'pukul', 'wib', 'narasumber', 'brigjen', 'pol']</t>
+          <t>['rt', 'saat', 'senja', 'jakarta', 'international', 'stadium']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'saat', 'senja', 'jakarta', 'international', 'stadium']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['polri', 'news', 'line', 'transformasi', 'polri', 'presisi', 'kamis', 'februari', 'wib', 'narasumber', 'brigjen', 'pol']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['polri', 'news', 'line', 'transformasi', 'polri', 'presisi', 'kamis', 'februari', 'wib', 'narasumber', 'brigjen', 'pol']</t>
+          <t>['senja', 'jakarta', 'international', 'stadium']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['senja', 'jakarta', 'international', 'stadium']</t>
         </is>
       </c>
     </row>
@@ -3603,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16532</v>
+        <v>27300</v>
       </c>
       <c r="C89" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>rt sby berapa pun uang anda demokrat not for sale</t>
+          <t>rt pagi tadi gubernur mengunjungi proyek jakarta international stadium yang telah memasuki minggu ke</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['rt', 'sby', 'berapa', 'pun', 'uang', 'anda', 'demokrat', 'not', 'for', 'sale']</t>
+          <t>['rt', 'pagi', 'tadi', 'gubernur', 'mengunjungi', 'proyek', 'jakarta', 'international', 'stadium', 'yang', 'telah', 'memasuki', 'minggu', 'ke']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'pagi', 'tadi', 'gubernur', 'mengunjungi', 'proyek', 'jakarta', 'international', 'stadium', 'yang', 'telah', 'memasuki', 'minggu', 'ke']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['sby', 'uang', 'demokrat', 'not', 'for', 'sale']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['sby', 'uang', 'demokrat', 'not', 'for', 'sale']</t>
+          <t>['pagi', 'gubernur', 'mengunjungi', 'proyek', 'jakarta', 'international', 'stadium', 'memasuki', 'minggu']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['pagi', 'gubernur', 'unjung', 'proyek', 'jakarta', 'international', 'stadium', 'pasuk', 'minggu']</t>
         </is>
       </c>
     </row>
@@ -3639,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16533</v>
+        <v>27301</v>
       </c>
       <c r="C90" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>rt di bawah komando elektabilitas demokrat terus meningkat masuk dlm jajaran parpol dg elektabilitas tert</t>
+          <t>rt aksi quick wins gubernur menjadi intruksi tentang pengendalian dampak bencana iklim berbagai aksi pengura</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['rt', 'di', 'bawah', 'komando', 'elektabilitas', 'demokrat', 'terus', 'meningkat', 'masuk', 'dlm', 'jajaran', 'parpol', 'dg', 'elektabilitas', 'tert']</t>
+          <t>['rt', 'aksi', 'quick', 'wins', 'gubernur', 'menjadi', 'intruksi', 'tentang', 'pengendalian', 'dampak', 'bencana', 'iklim', 'berbagai', 'aksi', 'pengura']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['rt', 'aksi', 'quick', 'menang', 'gubernur', 'menjadi', 'intruksi', 'tentang', 'pengendalian', 'dampak', 'bencana', 'iklim', 'berbagai', 'aksi', 'pengura']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['komando', 'elektabilitas', 'demokrat', 'meningkat', 'masuk', 'dlm', 'jajaran', 'parpol', 'elektabilitas', 'tert']</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['komando', 'elektabilitas', 'demokrat', 'tingkat', 'masuk', 'dlm', 'jajar', 'parpol', 'elektabilitas', 'tert']</t>
+          <t>['aksi', 'quick', 'menang', 'gubernur', 'intruksi', 'pengendalian', 'dampak', 'bencana', 'iklim', 'aksi', 'pengura']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['aksi', 'quick', 'menang', 'gubernur', 'intruksi', 'kendali', 'dampak', 'bencana', 'iklim', 'aksi', 'kura']</t>
         </is>
       </c>
     </row>
@@ -3675,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16534</v>
+        <v>27302</v>
       </c>
       <c r="C91" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>rt lagilagi bang zul anggota dpr ri fpd terobos banjir bantu korban banjir di kota tangerang</t>
+          <t>rt presiden sikap saya tak berubah tidak ada niat jadi presiden tiga periode</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['rt', 'lagilagi', 'bang', 'zul', 'anggota', 'dpr', 'ri', 'fpd', 'terobos', 'banjir', 'bantu', 'korban', 'banjir', 'di', 'kota', 'tangerang']</t>
+          <t>['rt', 'presiden', 'sikap', 'saya', 'tak', 'berubah', 'tidak', 'ada', 'niat', 'jadi', 'presiden', 'tiga', 'periode']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'presiden', 'sikap', 'saya', 'tak', 'berubah', 'tidak', 'ada', 'niat', 'jadi', 'presiden', 'tiga', 'periode']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['lagilagi', 'bang', 'zul', 'anggota', 'dpr', 'ri', 'fpd', 'terobos', 'banjir', 'bantu', 'korban', 'banjir', 'kota', 'tangerang']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['lagilagi', 'bang', 'zul', 'anggota', 'dpr', 'ri', 'fpd', 'terobos', 'banjir', 'bantu', 'korban', 'banjir', 'kota', 'tangerang']</t>
+          <t>['presiden', 'sikap', 'berubah', 'niat', 'presiden', 'periode']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['presiden', 'sikap', 'ubah', 'niat', 'presiden', 'periode']</t>
         </is>
       </c>
     </row>
@@ -3711,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16535</v>
+        <v>27303</v>
       </c>
       <c r="C92" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rt kapolri tak ingin ada lagi stigma hukum tajam ke bawah tapi tumpul ke atas</t>
+          <t>rt gubernur tadi pagi pagi sekali sudah berada di stadion kebanggaan warga masyarakat ibukota ja</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['rt', 'kapolri', 'tak', 'ingin', 'ada', 'lagi', 'stigma', 'hukum', 'tajam', 'ke', 'bawah', 'tapi', 'tumpul', 'ke', 'atas']</t>
+          <t>['rt', 'gubernur', 'tadi', 'pagi', 'pagi', 'sekali', 'sudah', 'berada', 'di', 'stadion', 'kebanggaan', 'warga', 'masyarakat', 'ibukota', 'ja']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['rt', 'gubernur', 'tadi', 'pagi', 'pagi', 'sekali', 'sudah', 'berada', 'di', 'stadion', 'kebanggaan', 'warga', 'masyarakat', 'ibu, kota', 'saja']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>['kapolri', 'stigma', 'hukum', 'tajam', 'tumpul']</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['kapolri', 'stigma', 'hukum', 'tajam', 'tumpul']</t>
+          <t>['gubernur', 'pagi', 'pagi', 'stadion', 'kebanggaan', 'warga', 'masyarakat', 'ibu, kota']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['gubernur', 'pagi', 'pagi', 'stadion', 'bangga', 'warga', 'masyarakat', 'ibu kota']</t>
         </is>
       </c>
     </row>
@@ -3747,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16536</v>
+        <v>27304</v>
       </c>
       <c r="C93" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>rt kerumunan apapun tdk di benarkan di tengah krisis wabah pandemi baik di sengaja ataupun tidak spontanitastidak di sengaj</t>
+          <t>rt selamatkan demokrasi indonesia dari para begal dan bromocorah politik dpr</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['rt', 'kerumunan', 'apapun', 'tdk', 'di', 'benarkan', 'di', 'tengah', 'krisis', 'wabah', 'pandemi', 'baik', 'di', 'sengaja', 'ataupun', 'tidak', 'spontanitastidak', 'di', 'sengaj']</t>
+          <t>['rt', 'selamatkan', 'demokrasi', 'indonesia', 'dari', 'para', 'begal', 'dan', 'bromocorah', 'politik', 'dpr']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'selamatkan', 'demokrasi', 'indonesia', 'dari', 'para', 'begal', 'dan', 'bromocorah', 'politik', 'dewan, perwakilan, rakyat']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['kerumunan', 'apapun', 'benarkan', 'krisis', 'wabah', 'pandemi', 'sengaja', 'spontanitastidak', 'sengaj']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['kerumun', 'apa', 'benar', 'krisis', 'wabah', 'pandemi', 'sengaja', 'spontanitastidak', 'sengaj']</t>
+          <t>['selamatkan', 'demokrasi', 'indonesia', 'begal', 'bromocorah', 'politik', 'dewan, perwakilan, rakyat']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['selamat', 'demokrasi', 'indonesia', 'begal', 'bromocorah', 'politik', 'dewan wakil rakyat']</t>
         </is>
       </c>
     </row>
@@ -3783,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16537</v>
+        <v>27305</v>
       </c>
       <c r="C94" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rt susi bersuara malam ini saya akan membahas tentang kebebasan berpendapat dengan prof pak</t>
+          <t>rt kebutuhan gizi anak haruslah kita perhatikan dengan baik agar muncul generasi yg lbh baik</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['rt', 'susi', 'bersuara', 'malam', 'ini', 'saya', 'akan', 'membahas', 'tentang', 'kebebasan', 'berpendapat', 'dengan', 'prof', 'pak']</t>
+          <t>['rt', 'kebutuhan', 'gizi', 'anak', 'haruslah', 'kita', 'perhatikan', 'dengan', 'baik', 'agar', 'muncul', 'generasi', 'yg', 'lbh', 'baik']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'kebutuhan', 'gizi', 'anak', 'haruslah', 'kita', 'perhatikan', 'dengan', 'baik', 'agar', 'muncul', 'generasi', 'yang', 'lebih', 'baik']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['susi', 'bersuara', 'malam', 'membahas', 'kebebasan', 'berpendapat', 'prof']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['sus', 'suara', 'malam', 'bahas', 'bebas', 'dapat', 'prof']</t>
+          <t>['kebutuhan', 'gizi', 'anak', 'perhatikan', 'muncul', 'generasi']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['butuh', 'gizi', 'anak', 'perhati', 'muncul', 'generasi']</t>
         </is>
       </c>
     </row>
@@ -3819,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16538</v>
+        <v>27306</v>
       </c>
       <c r="C95" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rt alghozali para pemuda adalah masa depan budidaya uang</t>
+          <t>rt semalam menjenguk jenderal  beliau sedang dirawat karena sakit mohon doa sahabat semoga segera pulih</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rt', 'alghozali', 'para', 'pemuda', 'adalah', 'masa', 'depan', 'budidaya', 'uang']</t>
+          <t>['rt', 'semalam', 'menjenguk', 'jenderal', 'beliau', 'sedang', 'dirawat', 'karena', 'sakit', 'mohon', 'doa', 'sahabat', 'semoga', 'segera', 'pulih']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'semalam', 'menjenguk', 'jenderal', 'beliau', 'sedang', 'dirawat', 'karena', 'sakit', 'mohon', 'doa', 'sahabat', 'semoga', 'segera', 'pulih']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['alghozali', 'pemuda', 'budidaya', 'uang']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['alghozali', 'pemuda', 'budidaya', 'uang']</t>
+          <t>['semalam', 'menjenguk', 'jenderal', 'beliau', 'dirawat', 'sakit', 'mohon', 'doa', 'sahabat', 'semoga', 'pulih']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['malam', 'jenguk', 'jenderal', 'beliau', 'rawat', 'sakit', 'mohon', 'doa', 'sahabat', 'moga', 'pulih']</t>
         </is>
       </c>
     </row>
@@ -3855,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16539</v>
+        <v>27307</v>
       </c>
       <c r="C96" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rt kch saksi sejarah akhir betapa rakyat riau sangat merindukan dan mencintai sbypadahal hari sebelumnyapun presiden jokow</t>
+          <t>rt saya bertolak menuju bali pagi ini untuk kunjungan sehari ke gianyar dan denpasar di sana saya hendak meninjau pelaksanaan</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'kch', 'saksi', 'sejarah', 'akhir', 'betapa', 'rakyat', 'riau', 'sangat', 'merindukan', 'dan', 'mencintai', 'sbypadahal', 'hari', 'sebelumnyapun', 'presiden', 'jokow']</t>
+          <t>['rt', 'saya', 'bertolak', 'menuju', 'bali', 'pagi', 'ini', 'untuk', 'kunjungan', 'sehari', 'ke', 'gianyar', 'dan', 'denpasar', 'di', 'sana', 'saya', 'hendak', 'meninjau', 'pelaksanaan']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'saya', 'bertolak', 'menuju', 'bali', 'pagi', 'ini', 'untuk', 'kunjungan', 'sehari', 'ke', 'gianyar', 'dan', 'denpasar', 'di', 'sana', 'saya', 'hendak', 'meninjau', 'pelaksanaan']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['kch', 'saksi', 'sejarah', 'betapa', 'rakyat', 'riau', 'merindukan', 'mencintai', 'sbypadahal', 'sebelumnyapun', 'presiden', 'jokow']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['kch', 'saksi', 'sejarah', 'betapa', 'rakyat', 'riau', 'rindu', 'cinta', 'sbypadahal', 'belum', 'presiden', 'jokow']</t>
+          <t>['bertolak', 'bali', 'pagi', 'kunjungan', 'sehari', 'gianyar', 'denpasar', 'meninjau', 'pelaksanaan']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['tolak', 'bal', 'pagi', 'kunjung', 'hari', 'gianyar', 'denpasar', 'tinjau', 'laksana']</t>
         </is>
       </c>
     </row>
@@ -3891,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16540</v>
+        <v>27308</v>
       </c>
       <c r="C97" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>rt potensi</t>
+          <t>rt polri tahukah kamu apakah skck itu sumber</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['rt', 'potensi']</t>
+          <t>['rt', 'polri', 'tahukah', 'kamu', 'apakah', 'skck', 'itu', 'sumber']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'kepolisian, republik, indonesia', 'tahukah', 'kamu', 'apakah', 'surat, keterangan, catatan, kepolisian', 'itu', 'sumber']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['potensi']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['potensi']</t>
+          <t>['kepolisian, republik, indonesia', 'tahukah', 'surat, keterangan, catatan, kepolisian', 'sumber']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['polisi republik indonesia', 'tahu', 'surat terang catat polisi', 'sumber']</t>
         </is>
       </c>
     </row>
@@ -3927,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16541</v>
+        <v>27309</v>
       </c>
       <c r="C98" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>rt rumah anggota dpr ri fraksi pdip ihsan yunus digeledah kpk terkait kasus korupsi bantuan sosial bansos corona yang juga men</t>
+          <t>rt daerah gue makin kece</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['rt', 'rumah', 'anggota', 'dpr', 'ri', 'fraksi', 'pdip', 'ihsan', 'yunus', 'digeledah', 'kpk', 'terkait', 'kasus', 'korupsi', 'bantuan', 'sosial', 'bansos', 'corona', 'yang', 'juga', 'men']</t>
+          <t>['rt', 'daerah', 'gue', 'makin', 'kece']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'daerah', 'gue', 'makin', 'kece']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['rumah', 'anggota', 'dpr', 'ri', 'fraksi', 'pdip', 'ihsan', 'yunus', 'digeledah', 'kpk', 'terkait', 'korupsi', 'bantuan', 'sosial', 'bansos', 'corona', 'men']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['rumah', 'anggota', 'dpr', 'ri', 'fraksi', 'pdip', 'ihsan', 'yunus', 'geledah', 'kpk', 'kait', 'korupsi', 'bantu', 'sosial', 'bansos', 'corona', 'men']</t>
+          <t>['daerah', 'gue', 'kece']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['daerah', 'gue', 'kece']</t>
         </is>
       </c>
     </row>
@@ -3963,34 +4457,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16542</v>
+        <v>27310</v>
       </c>
       <c r="C99" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>rt samsul</t>
+          <t xml:space="preserve">rt mengukir pelangi dalam lembaran hidup sesungguhnya allah taala tidak pernah menjanjikan bahwa langit itu selalu </t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['rt', 'samsul']</t>
+          <t>['rt', 'mengukir', 'pelangi', 'dalam', 'lembaran', 'hidup', 'sesungguhnya', 'allah', 'taala', 'tidak', 'pernah', 'menjanjikan', 'bahwa', 'langit', 'itu', 'selalu']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'mengukir', 'pelangi', 'dalam', 'lembaran', 'hidup', 'sesungguhnya', 'allah', 'taala', 'tidak', 'pernah', 'menjanjikan', 'bahwa', 'langit', 'itu', 'selalu']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['samsul']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['samsul']</t>
+          <t>['mengukir', 'pelangi', 'lembaran', 'hidup', 'sesungguhnya', 'allah', 'taala', 'menjanjikan', 'langit']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['ukir', 'pelangi', 'lembar', 'hidup', 'sungguh', 'allah', 'taala', 'janji', 'langit']</t>
         </is>
       </c>
     </row>
@@ -3999,34 +4498,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16543</v>
+        <v>27311</v>
       </c>
       <c r="C100" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt bang rasy kch lubis udah tahu </t>
+          <t>rt jadikan perjalanan anda menjadi pengalaman ibukota maju kotanya bahagia warganya</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['rt', 'bang', 'rasy', 'kch', 'lubis', 'udah', 'tahu']</t>
+          <t>['rt', 'jadikan', 'perjalanan', 'anda', 'menjadi', 'pengalaman', 'ibukota', 'maju', 'kotanya', 'bahagia', 'warganya']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'jadikan', 'perjalanan', 'anda', 'menjadi', 'pengalaman', 'ibu, kota', 'maju', 'kotanya', 'bahagia', 'warganya']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['bang', 'rasy', 'kch', 'lubis', 'udah']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['bang', 'rasy', 'kch', 'lubis', 'udah']</t>
+          <t>['jadikan', 'perjalanan', 'pengalaman', 'ibu, kota', 'maju', 'kotanya', 'bahagia', 'warganya']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['jadi', 'jalan', 'alam', 'ibu kota', 'maju', 'kota', 'bahagia', 'warga']</t>
         </is>
       </c>
     </row>
@@ -4035,34 +4539,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16544</v>
+        <v>27312</v>
       </c>
       <c r="C101" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>rt secara pribadi saya sangat yakin bahwa yang dilakukan moeldoko adalah di luar pengetahuan presiden jokowi ucap sby https</t>
+          <t>rt nakes norwegia meninggal akibat pendarahan otak usai divaksin</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['rt', 'secara', 'pribadi', 'saya', 'sangat', 'yakin', 'bahwa', 'yang', 'dilakukan', 'moeldoko', 'adalah', 'di', 'luar', 'pengetahuan', 'presiden', 'jokowi', 'ucap', 'sby', 'https']</t>
+          <t>['rt', 'nakes', 'norwegia', 'meninggal', 'akibat', 'pendarahan', 'otak', 'usai', 'divaksin']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'nakes', 'norwegia', 'meninggal', 'akibat', 'pendarahan', 'otak', 'usai', 'divaksin']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['pribadi', 'moeldoko', 'pengetahuan', 'presiden', 'jokowi', 'sby', 'https']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['pribadi', 'moeldoko', 'tahu', 'presiden', 'jokowi', 'sby', 'https']</t>
+          <t>['nakes', 'norwegia', 'meninggal', 'akibat', 'pendarahan', 'otak', 'divaksin']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['nakes', 'norwegia', 'tinggal', 'akibat', 'darah', 'otak', 'vaksin']</t>
         </is>
       </c>
     </row>
